--- a/Review files/qald9_test_set_review_table.xlsx
+++ b/Review files/qald9_test_set_review_table.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D8522-6BFC-44CB-B442-D94938D756F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="948">
   <si>
     <t>id</t>
   </si>
@@ -1252,9 +1258,6 @@
     <t>¿Quién estuvo en la misión Apollo 11?</t>
   </si>
   <si>
-    <t>¿Cuál es la longitud de onda de Indigo?</t>
-  </si>
-  <si>
     <t>Dame todas las caras B de los Ramones.</t>
   </si>
   <si>
@@ -2306,13 +2309,568 @@
   </si>
   <si>
     <t xml:space="preserve">Tres naves ,   usado ,   Colón </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asesino, César </t>
+  </si>
+  <si>
+    <t>¿Cuál es la montaña más alta de Alemania?</t>
+  </si>
+  <si>
+    <t>presidente estadounidense, en el cargo, guerra, Vietnam</t>
+  </si>
+  <si>
+    <t>¿De qué estado americano es gobernador Butch Otter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál es la profesión de Frank Herbert? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">profesión, Frank Herbert </t>
+  </si>
+  <si>
+    <t>¿Es el Taiko un tipo de instrumento musical japonés?</t>
+  </si>
+  <si>
+    <t>Taiko,  tipo de instrumento musical, japonés</t>
+  </si>
+  <si>
+    <t>asientos, estadio, FC Porto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué programa de viajero frecuente tiene más aerolíneas? </t>
+  </si>
+  <si>
+    <t>¿Qué aeropuertos hay en California?</t>
+  </si>
+  <si>
+    <t>aeropuertos, California</t>
+  </si>
+  <si>
+    <t>¿Qué apodos tiene San Francisco?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el nombre de nacimiento de Angela Merkel?</t>
+  </si>
+  <si>
+    <t>nombre de nacimiento,  Angela Merkel</t>
+  </si>
+  <si>
+    <t>¿Quién es el alcalde de Berlín?</t>
+  </si>
+  <si>
+    <t>Berlín,  alcalde</t>
+  </si>
+  <si>
+    <t>países,  Unión Europea,  moneda,  Euro</t>
+  </si>
+  <si>
+    <t>¿Qué países de la Unión Europea utilizan el euro como su moneda?</t>
+  </si>
+  <si>
+    <t>¿Qué productos de software publicó Mean Hamster Software?</t>
+  </si>
+  <si>
+    <t>productos de software, publicado, Mean Hamster Software</t>
+  </si>
+  <si>
+    <t>país, nacimiento,  Bill Gates</t>
+  </si>
+  <si>
+    <t>número nietos,  Jacques Cousteau</t>
+  </si>
+  <si>
+    <t>¿Qué skaters profesionales son de Suecia?</t>
+  </si>
+  <si>
+    <t>skaters, profesional,  Suecia</t>
+  </si>
+  <si>
+    <t>¿Qué monarcas del Reino Unido estaban casados con una persona alemana?</t>
+  </si>
+  <si>
+    <t>Reino Unido,  monarca, casado,alemán</t>
+  </si>
+  <si>
+    <t>¿Qué estado americano fue el último en ser admitido?</t>
+  </si>
+  <si>
+    <t>¿A qué clases pertenece el milpiés?</t>
+  </si>
+  <si>
+    <t>milpiés, clase, pertenece</t>
+  </si>
+  <si>
+    <t>¿Quién pintó La Tormenta en el mar de Galilea?</t>
+  </si>
+  <si>
+    <t>La Tormenta en el mar de Galilea,  pintor</t>
+  </si>
+  <si>
+    <t>¿Cuándo se unió Finlandia a la Unión Europea?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finlandia , Unión Europea ,  unirse </t>
+  </si>
+  <si>
+    <t>¿Qué actores participan en The Big Bang Theory?</t>
+  </si>
+  <si>
+    <t>actores, The Big Bang Theory</t>
+  </si>
+  <si>
+    <t>¿Qué escritores ganaron el premio Nobel de Literatura?</t>
+  </si>
+  <si>
+    <t>escritores, premio Nobel de Literatura</t>
+  </si>
+  <si>
+    <t>¿Qué actores ingleses protagonizan Lovesick?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el apodo de Bagdad?</t>
+  </si>
+  <si>
+    <t>Bagdad, apodo</t>
+  </si>
+  <si>
+    <t>¿En qué ciudad nació el presidente de Montenegro?</t>
+  </si>
+  <si>
+    <t>ciudad,  nació,  presidente, Montenegro</t>
+  </si>
+  <si>
+    <t>¿Qué estado de los Estados Unidos de América tiene la mayor densidad poblacional?</t>
+  </si>
+  <si>
+    <t>estado,  Estados Unidos de América, densidad poblacional</t>
+  </si>
+  <si>
+    <t>río, más largo, China</t>
+  </si>
+  <si>
+    <t>¿Cuál es el prefijo de Berlín?</t>
+  </si>
+  <si>
+    <t>prefijo,  Berlín</t>
+  </si>
+  <si>
+    <t>¿Cuántos científicos se han graduado de una Universidad de la Ivy League?</t>
+  </si>
+  <si>
+    <t>científicos,  graduado,  Universidad, Ivy League</t>
+  </si>
+  <si>
+    <t>Número de lunas,  Marte</t>
+  </si>
+  <si>
+    <t>verdadero nombre, Batman</t>
+  </si>
+  <si>
+    <t>¿Por qué es famoso Elon Musk?</t>
+  </si>
+  <si>
+    <t>famoso,  Elon Musk</t>
+  </si>
+  <si>
+    <t>¿Quién es el autor de WikiLeaks?</t>
+  </si>
+  <si>
+    <t>¿De qué estado americano fue gobernador Sean Parnell?</t>
+  </si>
+  <si>
+    <t>estado americano,  Gobernador,  Sean Parnell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">años ,   Ford Modelo T ,   fabricado </t>
+  </si>
+  <si>
+    <t>¿Qué animales están extintos?</t>
+  </si>
+  <si>
+    <t>¿Quién era la esposa del presidente Lincoln?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esposa ,   presidente ,   Lincoln </t>
+  </si>
+  <si>
+    <t>¿Cuántos premios tiene Bertrand Russell?</t>
+  </si>
+  <si>
+    <t>Bertrand Russell, premios</t>
+  </si>
+  <si>
+    <t>sondas espaciales,  órbita, alrededor sol</t>
+  </si>
+  <si>
+    <t>¿Cuántos estudiantes tiene la Universidad Libre de Ámsterdam?</t>
+  </si>
+  <si>
+    <t>Universidad Libre de Ámsterdam,  estudiantes</t>
+  </si>
+  <si>
+    <t>¿Cuántos son los ingresos generados por IBM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingresos, IBM </t>
+  </si>
+  <si>
+    <t>¿Con quién estuvo casado Tom Hanks?</t>
+  </si>
+  <si>
+    <t>Tom Hanks, casado</t>
+  </si>
+  <si>
+    <t>¿Qué autos son producidos en Alemania?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el volcán más alto en África?</t>
+  </si>
+  <si>
+    <t>volcán,  más alto,  África</t>
+  </si>
+  <si>
+    <t>¿Qué poeta ha escrito el mayor número de libros?</t>
+  </si>
+  <si>
+    <t>poeta,  mayor número,  libros, escrito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mafiosos, era de la prohibición </t>
+  </si>
+  <si>
+    <t>¿Qué naves espaciales volaron a Marte?</t>
+  </si>
+  <si>
+    <t>Muéstrame todas las películas Checas</t>
+  </si>
+  <si>
+    <t>películas, checas</t>
+  </si>
+  <si>
+    <t>Dame todos los taikonautas.</t>
+  </si>
+  <si>
+    <t>países, más de diez, volcanes</t>
+  </si>
+  <si>
+    <t>películas, Tom Cruice</t>
+  </si>
+  <si>
+    <t>¿En qué películas participa Tom Cruise?</t>
+  </si>
+  <si>
+    <t>¿Cuándo murió el creador de Drácula?</t>
+  </si>
+  <si>
+    <t>muerte, creador, Drácula</t>
+  </si>
+  <si>
+    <t>¿Quién creó la Wikipedia en inglés?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creador, Inglés, Wikipedia </t>
+  </si>
+  <si>
+    <t>¿Qué cancilleres de Alemania eran mujeres?</t>
+  </si>
+  <si>
+    <t>canciller de Alemania,  mujer</t>
+  </si>
+  <si>
+    <t>¿Quién es el dueño de Aldi?</t>
+  </si>
+  <si>
+    <t>Aldi, dueño</t>
+  </si>
+  <si>
+    <t>¿Qué libros escribió Danielle Steel?</t>
+  </si>
+  <si>
+    <t>libros, escritor, Danielle Steel</t>
+  </si>
+  <si>
+    <t>¿Quién fue influenciado por Sócrates?</t>
+  </si>
+  <si>
+    <t>influenciado,  Sócrates</t>
+  </si>
+  <si>
+    <t>¿Qué tan profundo es el lago Chiem?</t>
+  </si>
+  <si>
+    <t>Lago Chiem, profundidad</t>
+  </si>
+  <si>
+    <t>¿Qué empresas operan tanto en la industria aeroespacial como en la industria médica?</t>
+  </si>
+  <si>
+    <t>empresas,  industria aeroespacial, industria médica</t>
+  </si>
+  <si>
+    <t>padres,  reina Victoria</t>
+  </si>
+  <si>
+    <t>castillos, Estados Unidos</t>
+  </si>
+  <si>
+    <t>¿Qué aves están en peligro de extinción?</t>
+  </si>
+  <si>
+    <t>¿Qué países une el río Rin?</t>
+  </si>
+  <si>
+    <t>río Rin,  une,  países</t>
+  </si>
+  <si>
+    <t>elementos químicos</t>
+  </si>
+  <si>
+    <t>¿Quiénes fueron presidentes de Estados Unidos en los últimos 20 años?</t>
+  </si>
+  <si>
+    <t>¿Cuándo se estrena la película Worst Case Scenario en los Países Bajos?</t>
+  </si>
+  <si>
+    <t>¿Con quién se casó Lance Bass?</t>
+  </si>
+  <si>
+    <t>¿Con quién está casada la hija de Bill Clinton?</t>
+  </si>
+  <si>
+    <t>Bill Clinton, hija, esposo</t>
+  </si>
+  <si>
+    <t>¿Quién estuvo en la misión Apolo 11?</t>
+  </si>
+  <si>
+    <t>presente,  misión, Apolo 11</t>
+  </si>
+  <si>
+    <t>¿Cuál es la longitud de onda del color índigo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitud de onda, color índigo </t>
+  </si>
+  <si>
+    <t>Dame todos los lados B de los Ramones.</t>
+  </si>
+  <si>
+    <t>Ramones,  lado B</t>
+  </si>
+  <si>
+    <t>apodo,  Scarface</t>
+  </si>
+  <si>
+    <t>¿Dónde se encuentra el Fort Knox?</t>
+  </si>
+  <si>
+    <t>Fort Knox, ubicación</t>
+  </si>
+  <si>
+    <t>número de emperadores, China</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los nombres de las Tortugas Ninja?</t>
+  </si>
+  <si>
+    <t>nombres,  Tortugas Ninja</t>
+  </si>
+  <si>
+    <t>¿En qué universidad estudió la esposa de Obama?</t>
+  </si>
+  <si>
+    <t>universidad, esposa, Obama,  estudió</t>
+  </si>
+  <si>
+    <t>¿Cuándo proclamó su independencia Paraguay?</t>
+  </si>
+  <si>
+    <t>¿Cuánto mide el jugador activo más bajo de la NBA?</t>
+  </si>
+  <si>
+    <t>tamaño,  jugador más bajo,  NBA?</t>
+  </si>
+  <si>
+    <t>¿Dónde murió Abrahan Lincoln?</t>
+  </si>
+  <si>
+    <t>Abrahan Lincoln, lugar de muerte</t>
+  </si>
+  <si>
+    <t>Jack Wolfskin,  fundación</t>
+  </si>
+  <si>
+    <t>¿En qué ciudad está la sede de Air China?</t>
+  </si>
+  <si>
+    <t>ciudad,  sede, Air China</t>
+  </si>
+  <si>
+    <t>¿Cuándo tuvo lugar el Motín del té?</t>
+  </si>
+  <si>
+    <t>Motín del té,  fecha</t>
+  </si>
+  <si>
+    <t>¿Qué animales están en peligro crítico de extinción?</t>
+  </si>
+  <si>
+    <t>animales,  peligro crítico de extinción</t>
+  </si>
+  <si>
+    <t>¿Qué políticos estuvieron casados con una persona alemana?</t>
+  </si>
+  <si>
+    <t>políticos, casados, alemán</t>
+  </si>
+  <si>
+    <t>¿Es el nombre de la esposa del presidente Obama Michelle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esposa,  presidente, Obama,  nombre, Michelle </t>
+  </si>
+  <si>
+    <t>Muhammad,  muerte</t>
+  </si>
+  <si>
+    <t>¿De qué se compone la atmósfera de la Luna?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composición,  atmósfera, la Luna </t>
+  </si>
+  <si>
+    <t>¿Quién es el gobernador de Texas?</t>
+  </si>
+  <si>
+    <t>¿Qué películas ha dirigido Kurosawa?</t>
+  </si>
+  <si>
+    <t>película,  director, Kurosawa</t>
+  </si>
+  <si>
+    <t>¿Cuál es el nombre de la famosa batalla en San Antonio en 1836?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">famosa batalla ,   1836 ,   San Antonio </t>
+  </si>
+  <si>
+    <t>Dame las páginas web oficiales de los actores de programa de televisión Charmed</t>
+  </si>
+  <si>
+    <t>sitio web oficial ,   actores , programa de televisión, Charmed</t>
+  </si>
+  <si>
+    <t>¿Qué librerías fueron fundadas antes de 1400?</t>
+  </si>
+  <si>
+    <t>librerías, fundadas,  antes de 1400</t>
+  </si>
+  <si>
+    <t>¿Qué islas pertenecientes a las islas Frisias son parte de los Países Bajos?</t>
+  </si>
+  <si>
+    <t>islas Frisias,  Países Bajos</t>
+  </si>
+  <si>
+    <t>¿En qué museo está en exhibición el Grito de Munch?</t>
+  </si>
+  <si>
+    <t>¿Quién asumió el cargo de presidente luego de la muerte de JFK?</t>
+  </si>
+  <si>
+    <t>¿Quiénes son los padres de la esposa de Juan Carlos I?</t>
+  </si>
+  <si>
+    <t>¿Qué novelista escribió Canción de hielo y fuego?</t>
+  </si>
+  <si>
+    <t>Canción de hielo y fuego, escribió, novelista</t>
+  </si>
+  <si>
+    <t>¿En qué estudio grabaron los Beatles su primer álbum?</t>
+  </si>
+  <si>
+    <t>Beatles,  primer álbum,  estudio</t>
+  </si>
+  <si>
+    <t>¿Qué empresas cerveceras hay en Renania del Norte-Westfalia?</t>
+  </si>
+  <si>
+    <t>empresas cerveceras, Renania del Norte-Westfalia</t>
+  </si>
+  <si>
+    <t>¿Quién es el jugador más joven de la Premier League?</t>
+  </si>
+  <si>
+    <t>jugador,  más joven,  Premier League</t>
+  </si>
+  <si>
+    <t>¿Qué instrumentos toca Cat Stevens?</t>
+  </si>
+  <si>
+    <t>Cat Stevens,  instrumentos,  toca</t>
+  </si>
+  <si>
+    <t>¿Quién era llamado Rodzilla?</t>
+  </si>
+  <si>
+    <t>apodo,  Rodzilla</t>
+  </si>
+  <si>
+    <t>¿Cuántas compañías han sido fundadas por el fundador de Facebook?</t>
+  </si>
+  <si>
+    <t>compañías,  fundadas,  fundador de Facebook</t>
+  </si>
+  <si>
+    <t>¿Cuál es el libro con más páginas?</t>
+  </si>
+  <si>
+    <t>libro,  más paginas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">más grande, estado , Estados Unidos </t>
+  </si>
+  <si>
+    <t>¿Cómo se llamaban las tres naves utilizadas por Colón?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres naves ,   nombre ,   Colón </t>
+  </si>
+  <si>
+    <t>programa de viajero frecuente, más aerolíneas</t>
+  </si>
+  <si>
+    <t>película,  Worst Case Scenario,  cines,  Países Bajos</t>
+  </si>
+  <si>
+    <t>¿Qué subsidiario de TUI Travel opera tanto en Glasgow y en Dublín?</t>
+  </si>
+  <si>
+    <t>subsidiario,  TUI Travel,  opera,  Glasgow,  Dublín</t>
+  </si>
+  <si>
+    <t>¿Cuál es la longitud de onda de Índigo?</t>
+  </si>
+  <si>
+    <t>¿Cuándo se fundó Jack Wolfskin?</t>
+  </si>
+  <si>
+    <t>Pilsner Urquell,  cervecería,  año de fundación</t>
+  </si>
+  <si>
+    <t>página de Web,  empresas,  empleados,  más de 500000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2375,11 +2933,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2421,7 +2987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2453,9 +3019,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2487,6 +3071,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2662,14 +3264,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L150" sqref="L150"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2713,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2723,14 +3336,23 @@
       <c r="C2" t="s">
         <v>314</v>
       </c>
+      <c r="D2" t="s">
+        <v>314</v>
+      </c>
       <c r="E2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>613</v>
+      </c>
+      <c r="G2" t="s">
+        <v>613</v>
+      </c>
+      <c r="N2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2740,14 +3362,26 @@
       <c r="C3" t="s">
         <v>315</v>
       </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
       <c r="E3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>614</v>
+      </c>
+      <c r="G3" t="s">
+        <v>764</v>
+      </c>
+      <c r="K3" t="s">
+        <v>763</v>
+      </c>
+      <c r="N3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2757,14 +3391,23 @@
       <c r="C4" t="s">
         <v>316</v>
       </c>
+      <c r="D4" t="s">
+        <v>765</v>
+      </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>615</v>
+      </c>
+      <c r="G4" t="s">
+        <v>615</v>
+      </c>
+      <c r="J4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2774,14 +3417,26 @@
       <c r="C5" t="s">
         <v>317</v>
       </c>
+      <c r="D5" t="s">
+        <v>317</v>
+      </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>616</v>
+      </c>
+      <c r="G5" t="s">
+        <v>766</v>
+      </c>
+      <c r="K5" t="s">
+        <v>763</v>
+      </c>
+      <c r="N5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2791,14 +3446,23 @@
       <c r="C6" t="s">
         <v>318</v>
       </c>
+      <c r="D6" t="s">
+        <v>767</v>
+      </c>
       <c r="E6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F6" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>617</v>
+      </c>
+      <c r="G6" t="s">
+        <v>617</v>
+      </c>
+      <c r="M6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2808,14 +3472,23 @@
       <c r="C7" t="s">
         <v>319</v>
       </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
       <c r="E7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>618</v>
+      </c>
+      <c r="G7" t="s">
+        <v>618</v>
+      </c>
+      <c r="N7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2825,14 +3498,23 @@
       <c r="C8" t="s">
         <v>320</v>
       </c>
+      <c r="D8" t="s">
+        <v>320</v>
+      </c>
       <c r="E8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F8" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>619</v>
+      </c>
+      <c r="G8" t="s">
+        <v>619</v>
+      </c>
+      <c r="N8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2842,14 +3524,29 @@
       <c r="C9" t="s">
         <v>321</v>
       </c>
+      <c r="D9" t="s">
+        <v>768</v>
+      </c>
       <c r="E9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F9" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>620</v>
+      </c>
+      <c r="G9" t="s">
+        <v>769</v>
+      </c>
+      <c r="H9" t="s">
+        <v>763</v>
+      </c>
+      <c r="I9" t="s">
+        <v>763</v>
+      </c>
+      <c r="K9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2859,14 +3556,26 @@
       <c r="C10" t="s">
         <v>322</v>
       </c>
+      <c r="D10" t="s">
+        <v>770</v>
+      </c>
       <c r="E10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F10" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>621</v>
+      </c>
+      <c r="G10" t="s">
+        <v>771</v>
+      </c>
+      <c r="J10" t="s">
+        <v>763</v>
+      </c>
+      <c r="K10" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2876,14 +3585,26 @@
       <c r="C11" t="s">
         <v>323</v>
       </c>
+      <c r="D11" t="s">
+        <v>323</v>
+      </c>
       <c r="E11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>622</v>
+      </c>
+      <c r="G11" t="s">
+        <v>772</v>
+      </c>
+      <c r="K11" t="s">
+        <v>763</v>
+      </c>
+      <c r="N11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2893,14 +3614,29 @@
       <c r="C12" t="s">
         <v>324</v>
       </c>
+      <c r="D12" t="s">
+        <v>773</v>
+      </c>
       <c r="E12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F12" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>623</v>
+      </c>
+      <c r="G12" t="s">
+        <v>940</v>
+      </c>
+      <c r="K12" t="s">
+        <v>763</v>
+      </c>
+      <c r="L12" t="s">
+        <v>763</v>
+      </c>
+      <c r="M12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2910,14 +3646,23 @@
       <c r="C13" t="s">
         <v>325</v>
       </c>
+      <c r="D13" t="s">
+        <v>325</v>
+      </c>
       <c r="E13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F13" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>624</v>
+      </c>
+      <c r="G13" t="s">
+        <v>624</v>
+      </c>
+      <c r="N13" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2927,14 +3672,23 @@
       <c r="C14" t="s">
         <v>326</v>
       </c>
+      <c r="D14" t="s">
+        <v>326</v>
+      </c>
       <c r="E14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F14" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>625</v>
+      </c>
+      <c r="G14" t="s">
+        <v>625</v>
+      </c>
+      <c r="N14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2944,14 +3698,26 @@
       <c r="C15" t="s">
         <v>327</v>
       </c>
+      <c r="D15" t="s">
+        <v>774</v>
+      </c>
       <c r="E15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F15" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>626</v>
+      </c>
+      <c r="G15" t="s">
+        <v>775</v>
+      </c>
+      <c r="J15" t="s">
+        <v>763</v>
+      </c>
+      <c r="K15" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2961,14 +3727,23 @@
       <c r="C16" t="s">
         <v>328</v>
       </c>
+      <c r="D16" t="s">
+        <v>776</v>
+      </c>
       <c r="E16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>627</v>
+      </c>
+      <c r="G16" t="s">
+        <v>627</v>
+      </c>
+      <c r="M16" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2978,14 +3753,26 @@
       <c r="C17" t="s">
         <v>329</v>
       </c>
+      <c r="D17" t="s">
+        <v>777</v>
+      </c>
       <c r="E17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F17" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>628</v>
+      </c>
+      <c r="G17" t="s">
+        <v>778</v>
+      </c>
+      <c r="K17" t="s">
+        <v>763</v>
+      </c>
+      <c r="M17" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2995,14 +3782,26 @@
       <c r="C18" t="s">
         <v>330</v>
       </c>
+      <c r="D18" t="s">
+        <v>779</v>
+      </c>
       <c r="E18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F18" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>629</v>
+      </c>
+      <c r="G18" t="s">
+        <v>780</v>
+      </c>
+      <c r="K18" t="s">
+        <v>763</v>
+      </c>
+      <c r="L18" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -3012,14 +3811,26 @@
       <c r="C19" t="s">
         <v>331</v>
       </c>
+      <c r="D19" t="s">
+        <v>782</v>
+      </c>
       <c r="E19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F19" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>630</v>
+      </c>
+      <c r="G19" t="s">
+        <v>781</v>
+      </c>
+      <c r="K19" t="s">
+        <v>763</v>
+      </c>
+      <c r="M19" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3029,14 +3840,32 @@
       <c r="C20" t="s">
         <v>332</v>
       </c>
+      <c r="D20" t="s">
+        <v>783</v>
+      </c>
       <c r="E20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>631</v>
+      </c>
+      <c r="G20" t="s">
+        <v>784</v>
+      </c>
+      <c r="I20" t="s">
+        <v>763</v>
+      </c>
+      <c r="J20" t="s">
+        <v>763</v>
+      </c>
+      <c r="K20" t="s">
+        <v>763</v>
+      </c>
+      <c r="L20" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3046,14 +3875,23 @@
       <c r="C21" t="s">
         <v>333</v>
       </c>
+      <c r="D21" t="s">
+        <v>333</v>
+      </c>
       <c r="E21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F21" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>632</v>
+      </c>
+      <c r="G21" t="s">
+        <v>785</v>
+      </c>
+      <c r="N21" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3063,14 +3901,29 @@
       <c r="C22" t="s">
         <v>334</v>
       </c>
+      <c r="D22" t="s">
+        <v>334</v>
+      </c>
       <c r="E22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F22" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>633</v>
+      </c>
+      <c r="G22" t="s">
+        <v>786</v>
+      </c>
+      <c r="K22" t="s">
+        <v>763</v>
+      </c>
+      <c r="L22" t="s">
+        <v>763</v>
+      </c>
+      <c r="N22" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3080,14 +3933,23 @@
       <c r="C23" t="s">
         <v>335</v>
       </c>
+      <c r="D23" t="s">
+        <v>787</v>
+      </c>
       <c r="E23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F23" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>634</v>
+      </c>
+      <c r="G23" t="s">
+        <v>788</v>
+      </c>
+      <c r="M23" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -3097,14 +3959,29 @@
       <c r="C24" t="s">
         <v>336</v>
       </c>
+      <c r="D24" t="s">
+        <v>789</v>
+      </c>
       <c r="E24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F24" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>635</v>
+      </c>
+      <c r="G24" t="s">
+        <v>790</v>
+      </c>
+      <c r="H24" t="s">
+        <v>763</v>
+      </c>
+      <c r="K24" t="s">
+        <v>763</v>
+      </c>
+      <c r="L24" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3114,14 +3991,23 @@
       <c r="C25" t="s">
         <v>337</v>
       </c>
+      <c r="D25" t="s">
+        <v>337</v>
+      </c>
       <c r="E25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F25" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>636</v>
+      </c>
+      <c r="G25" t="s">
+        <v>636</v>
+      </c>
+      <c r="N25" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3131,14 +4017,23 @@
       <c r="C26" t="s">
         <v>338</v>
       </c>
+      <c r="D26" t="s">
+        <v>338</v>
+      </c>
       <c r="E26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F26" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>637</v>
+      </c>
+      <c r="G26" t="s">
+        <v>637</v>
+      </c>
+      <c r="N26" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3148,14 +4043,23 @@
       <c r="C27" t="s">
         <v>339</v>
       </c>
+      <c r="D27" t="s">
+        <v>791</v>
+      </c>
       <c r="E27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F27" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>638</v>
+      </c>
+      <c r="G27" t="s">
+        <v>638</v>
+      </c>
+      <c r="L27" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -3165,14 +4069,29 @@
       <c r="C28" t="s">
         <v>340</v>
       </c>
+      <c r="D28" t="s">
+        <v>792</v>
+      </c>
       <c r="E28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F28" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>639</v>
+      </c>
+      <c r="G28" t="s">
+        <v>793</v>
+      </c>
+      <c r="J28" t="s">
+        <v>763</v>
+      </c>
+      <c r="K28" t="s">
+        <v>763</v>
+      </c>
+      <c r="L28" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3182,14 +4101,23 @@
       <c r="C29" t="s">
         <v>341</v>
       </c>
+      <c r="D29" t="s">
+        <v>341</v>
+      </c>
       <c r="E29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F29" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>640</v>
+      </c>
+      <c r="G29" t="s">
+        <v>640</v>
+      </c>
+      <c r="N29" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3199,14 +4127,23 @@
       <c r="C30" t="s">
         <v>342</v>
       </c>
+      <c r="D30" t="s">
+        <v>342</v>
+      </c>
       <c r="E30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F30" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>641</v>
+      </c>
+      <c r="G30" t="s">
+        <v>641</v>
+      </c>
+      <c r="N30" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -3216,14 +4153,29 @@
       <c r="C31" t="s">
         <v>343</v>
       </c>
+      <c r="D31" t="s">
+        <v>794</v>
+      </c>
       <c r="E31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F31" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>642</v>
+      </c>
+      <c r="G31" t="s">
+        <v>795</v>
+      </c>
+      <c r="I31" t="s">
+        <v>763</v>
+      </c>
+      <c r="J31" t="s">
+        <v>763</v>
+      </c>
+      <c r="K31" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -3233,14 +4185,23 @@
       <c r="C32" t="s">
         <v>344</v>
       </c>
+      <c r="D32" t="s">
+        <v>344</v>
+      </c>
       <c r="E32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F32" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>643</v>
+      </c>
+      <c r="G32" t="s">
+        <v>643</v>
+      </c>
+      <c r="N32" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -3250,14 +4211,29 @@
       <c r="C33" t="s">
         <v>345</v>
       </c>
+      <c r="D33" t="s">
+        <v>796</v>
+      </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F33" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>644</v>
+      </c>
+      <c r="G33" t="s">
+        <v>797</v>
+      </c>
+      <c r="I33" t="s">
+        <v>763</v>
+      </c>
+      <c r="J33" t="s">
+        <v>763</v>
+      </c>
+      <c r="K33" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -3267,14 +4243,26 @@
       <c r="C34" t="s">
         <v>346</v>
       </c>
+      <c r="D34" t="s">
+        <v>798</v>
+      </c>
       <c r="E34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F34" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>645</v>
+      </c>
+      <c r="G34" t="s">
+        <v>799</v>
+      </c>
+      <c r="H34" t="s">
+        <v>763</v>
+      </c>
+      <c r="K34" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -3284,14 +4272,23 @@
       <c r="C35" t="s">
         <v>347</v>
       </c>
+      <c r="D35" t="s">
+        <v>347</v>
+      </c>
       <c r="E35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F35" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>646</v>
+      </c>
+      <c r="G35" t="s">
+        <v>646</v>
+      </c>
+      <c r="N35" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -3301,14 +4298,23 @@
       <c r="C36" t="s">
         <v>348</v>
       </c>
+      <c r="D36" t="s">
+        <v>348</v>
+      </c>
       <c r="E36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F36" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>647</v>
+      </c>
+      <c r="G36" t="s">
+        <v>647</v>
+      </c>
+      <c r="N36" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -3318,14 +4324,26 @@
       <c r="C37" t="s">
         <v>349</v>
       </c>
+      <c r="D37" t="s">
+        <v>800</v>
+      </c>
       <c r="E37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F37" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>648</v>
+      </c>
+      <c r="G37" t="s">
+        <v>801</v>
+      </c>
+      <c r="K37" t="s">
+        <v>763</v>
+      </c>
+      <c r="M37" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -3335,14 +4353,23 @@
       <c r="C38" t="s">
         <v>350</v>
       </c>
+      <c r="D38" t="s">
+        <v>802</v>
+      </c>
       <c r="E38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F38" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>649</v>
+      </c>
+      <c r="G38" t="s">
+        <v>649</v>
+      </c>
+      <c r="M38" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3352,14 +4379,26 @@
       <c r="C39" t="s">
         <v>351</v>
       </c>
+      <c r="D39" t="s">
+        <v>803</v>
+      </c>
       <c r="E39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F39" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>650</v>
+      </c>
+      <c r="G39" t="s">
+        <v>804</v>
+      </c>
+      <c r="J39" t="s">
+        <v>763</v>
+      </c>
+      <c r="K39" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -3369,14 +4408,26 @@
       <c r="C40" t="s">
         <v>352</v>
       </c>
+      <c r="D40" t="s">
+        <v>805</v>
+      </c>
       <c r="E40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F40" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>651</v>
+      </c>
+      <c r="G40" t="s">
+        <v>806</v>
+      </c>
+      <c r="K40" t="s">
+        <v>763</v>
+      </c>
+      <c r="L40" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -3386,14 +4437,32 @@
       <c r="C41" t="s">
         <v>353</v>
       </c>
+      <c r="D41" t="s">
+        <v>807</v>
+      </c>
       <c r="E41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F41" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>652</v>
+      </c>
+      <c r="G41" t="s">
+        <v>808</v>
+      </c>
+      <c r="H41" t="s">
+        <v>763</v>
+      </c>
+      <c r="K41" t="s">
+        <v>763</v>
+      </c>
+      <c r="L41" t="s">
+        <v>763</v>
+      </c>
+      <c r="M41" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -3403,14 +4472,26 @@
       <c r="C42" t="s">
         <v>354</v>
       </c>
+      <c r="D42" t="s">
+        <v>354</v>
+      </c>
       <c r="E42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F42" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>653</v>
+      </c>
+      <c r="G42" t="s">
+        <v>809</v>
+      </c>
+      <c r="K42" t="s">
+        <v>763</v>
+      </c>
+      <c r="N42" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3420,14 +4501,26 @@
       <c r="C43" t="s">
         <v>355</v>
       </c>
+      <c r="D43" t="s">
+        <v>810</v>
+      </c>
       <c r="E43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F43" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>654</v>
+      </c>
+      <c r="G43" t="s">
+        <v>811</v>
+      </c>
+      <c r="K43" t="s">
+        <v>763</v>
+      </c>
+      <c r="L43" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -3437,14 +4530,26 @@
       <c r="C44" t="s">
         <v>356</v>
       </c>
+      <c r="D44" t="s">
+        <v>812</v>
+      </c>
       <c r="E44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F44" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>655</v>
+      </c>
+      <c r="G44" t="s">
+        <v>813</v>
+      </c>
+      <c r="H44" t="s">
+        <v>763</v>
+      </c>
+      <c r="K44" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -3454,14 +4559,23 @@
       <c r="C45" t="s">
         <v>357</v>
       </c>
+      <c r="D45" t="s">
+        <v>357</v>
+      </c>
       <c r="E45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F45" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>656</v>
+      </c>
+      <c r="G45" t="s">
+        <v>656</v>
+      </c>
+      <c r="N45" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -3471,14 +4585,23 @@
       <c r="C46" t="s">
         <v>358</v>
       </c>
+      <c r="D46" t="s">
+        <v>358</v>
+      </c>
       <c r="E46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F46" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>657</v>
+      </c>
+      <c r="G46" t="s">
+        <v>657</v>
+      </c>
+      <c r="N46" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -3488,14 +4611,29 @@
       <c r="C47" t="s">
         <v>359</v>
       </c>
+      <c r="D47" t="s">
+        <v>359</v>
+      </c>
       <c r="E47" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F47" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>658</v>
+      </c>
+      <c r="G47" t="s">
+        <v>814</v>
+      </c>
+      <c r="K47" t="s">
+        <v>763</v>
+      </c>
+      <c r="L47" t="s">
+        <v>763</v>
+      </c>
+      <c r="N47" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -3505,14 +4643,23 @@
       <c r="C48" t="s">
         <v>360</v>
       </c>
+      <c r="D48" t="s">
+        <v>360</v>
+      </c>
       <c r="E48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F48" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>659</v>
+      </c>
+      <c r="G48" t="s">
+        <v>815</v>
+      </c>
+      <c r="N48" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -3522,14 +4669,26 @@
       <c r="C49" t="s">
         <v>361</v>
       </c>
+      <c r="D49" t="s">
+        <v>816</v>
+      </c>
       <c r="E49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F49" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>660</v>
+      </c>
+      <c r="G49" t="s">
+        <v>817</v>
+      </c>
+      <c r="K49" t="s">
+        <v>763</v>
+      </c>
+      <c r="L49" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -3539,14 +4698,26 @@
       <c r="C50" t="s">
         <v>362</v>
       </c>
+      <c r="D50" t="s">
+        <v>818</v>
+      </c>
       <c r="E50" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F50" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>661</v>
+      </c>
+      <c r="G50" t="s">
+        <v>661</v>
+      </c>
+      <c r="H50" t="s">
+        <v>763</v>
+      </c>
+      <c r="L50" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -3556,14 +4727,26 @@
       <c r="C51" t="s">
         <v>363</v>
       </c>
+      <c r="D51" t="s">
+        <v>819</v>
+      </c>
       <c r="E51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F51" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>662</v>
+      </c>
+      <c r="G51" t="s">
+        <v>820</v>
+      </c>
+      <c r="K51" t="s">
+        <v>763</v>
+      </c>
+      <c r="M51" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -3573,14 +4756,26 @@
       <c r="C52" t="s">
         <v>364</v>
       </c>
+      <c r="D52" t="s">
+        <v>364</v>
+      </c>
       <c r="E52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F52" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>663</v>
+      </c>
+      <c r="G52" t="s">
+        <v>821</v>
+      </c>
+      <c r="K52" t="s">
+        <v>763</v>
+      </c>
+      <c r="N52" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -3590,14 +4785,23 @@
       <c r="C53" t="s">
         <v>365</v>
       </c>
+      <c r="D53" t="s">
+        <v>365</v>
+      </c>
       <c r="E53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F53" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>664</v>
+      </c>
+      <c r="G53" t="s">
+        <v>664</v>
+      </c>
+      <c r="N53" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -3607,14 +4811,23 @@
       <c r="C54" t="s">
         <v>366</v>
       </c>
+      <c r="D54" t="s">
+        <v>822</v>
+      </c>
       <c r="E54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F54" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>665</v>
+      </c>
+      <c r="G54" t="s">
+        <v>665</v>
+      </c>
+      <c r="M54" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -3624,14 +4837,29 @@
       <c r="C55" t="s">
         <v>367</v>
       </c>
+      <c r="D55" t="s">
+        <v>823</v>
+      </c>
       <c r="E55" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F55" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>666</v>
+      </c>
+      <c r="G55" t="s">
+        <v>824</v>
+      </c>
+      <c r="J55" t="s">
+        <v>763</v>
+      </c>
+      <c r="K55" t="s">
+        <v>763</v>
+      </c>
+      <c r="M55" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -3641,14 +4869,26 @@
       <c r="C56" t="s">
         <v>368</v>
       </c>
+      <c r="D56" t="s">
+        <v>825</v>
+      </c>
       <c r="E56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F56" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>667</v>
+      </c>
+      <c r="G56" t="s">
+        <v>826</v>
+      </c>
+      <c r="K56" t="s">
+        <v>763</v>
+      </c>
+      <c r="M56" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -3658,14 +4898,23 @@
       <c r="C57" t="s">
         <v>369</v>
       </c>
+      <c r="D57" t="s">
+        <v>369</v>
+      </c>
       <c r="E57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F57" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>668</v>
+      </c>
+      <c r="G57" t="s">
+        <v>668</v>
+      </c>
+      <c r="N57" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -3675,14 +4924,26 @@
       <c r="C58" t="s">
         <v>370</v>
       </c>
+      <c r="D58" t="s">
+        <v>370</v>
+      </c>
       <c r="E58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F58" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>669</v>
+      </c>
+      <c r="G58" t="s">
+        <v>827</v>
+      </c>
+      <c r="K58" t="s">
+        <v>763</v>
+      </c>
+      <c r="N58" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -3692,14 +4953,23 @@
       <c r="C59" t="s">
         <v>371</v>
       </c>
+      <c r="D59" t="s">
+        <v>371</v>
+      </c>
       <c r="E59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F59" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>670</v>
+      </c>
+      <c r="G59" t="s">
+        <v>670</v>
+      </c>
+      <c r="N59" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -3709,14 +4979,23 @@
       <c r="C60" t="s">
         <v>372</v>
       </c>
+      <c r="D60" t="s">
+        <v>372</v>
+      </c>
       <c r="E60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F60" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>671</v>
+      </c>
+      <c r="G60" t="s">
+        <v>671</v>
+      </c>
+      <c r="N60" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -3726,14 +5005,26 @@
       <c r="C61" t="s">
         <v>373</v>
       </c>
+      <c r="D61" t="s">
+        <v>828</v>
+      </c>
       <c r="E61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F61" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>672</v>
+      </c>
+      <c r="G61" t="s">
+        <v>829</v>
+      </c>
+      <c r="K61" t="s">
+        <v>763</v>
+      </c>
+      <c r="L61" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -3743,14 +5034,26 @@
       <c r="C62" t="s">
         <v>374</v>
       </c>
+      <c r="D62" t="s">
+        <v>830</v>
+      </c>
       <c r="E62" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F62" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>673</v>
+      </c>
+      <c r="G62" t="s">
+        <v>831</v>
+      </c>
+      <c r="H62" t="s">
+        <v>763</v>
+      </c>
+      <c r="M62" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -3760,14 +5063,23 @@
       <c r="C63" t="s">
         <v>375</v>
       </c>
+      <c r="D63" t="s">
+        <v>375</v>
+      </c>
       <c r="E63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F63" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>674</v>
+      </c>
+      <c r="G63" t="s">
+        <v>674</v>
+      </c>
+      <c r="N63" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -3777,14 +5089,23 @@
       <c r="C64" t="s">
         <v>376</v>
       </c>
+      <c r="D64" t="s">
+        <v>376</v>
+      </c>
       <c r="E64" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F64" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>675</v>
+      </c>
+      <c r="G64" t="s">
+        <v>675</v>
+      </c>
+      <c r="N64" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -3794,14 +5115,29 @@
       <c r="C65" t="s">
         <v>377</v>
       </c>
+      <c r="D65" t="s">
+        <v>832</v>
+      </c>
       <c r="E65" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F65" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>676</v>
+      </c>
+      <c r="G65" t="s">
+        <v>833</v>
+      </c>
+      <c r="J65" t="s">
+        <v>763</v>
+      </c>
+      <c r="K65" t="s">
+        <v>763</v>
+      </c>
+      <c r="L65" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -3811,14 +5147,23 @@
       <c r="C66" t="s">
         <v>378</v>
       </c>
+      <c r="D66" t="s">
+        <v>378</v>
+      </c>
       <c r="E66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F66" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>677</v>
+      </c>
+      <c r="G66" t="s">
+        <v>677</v>
+      </c>
+      <c r="N66" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -3828,14 +5173,23 @@
       <c r="C67" t="s">
         <v>379</v>
       </c>
+      <c r="D67" t="s">
+        <v>834</v>
+      </c>
       <c r="E67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F67" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>678</v>
+      </c>
+      <c r="G67" t="s">
+        <v>678</v>
+      </c>
+      <c r="M67" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -3845,14 +5199,23 @@
       <c r="C68" t="s">
         <v>380</v>
       </c>
+      <c r="D68" t="s">
+        <v>380</v>
+      </c>
       <c r="E68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F68" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>679</v>
+      </c>
+      <c r="G68" t="s">
+        <v>679</v>
+      </c>
+      <c r="N68" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -3862,14 +5225,26 @@
       <c r="C69" t="s">
         <v>381</v>
       </c>
+      <c r="D69" t="s">
+        <v>835</v>
+      </c>
       <c r="E69" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F69" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>680</v>
+      </c>
+      <c r="G69" t="s">
+        <v>836</v>
+      </c>
+      <c r="K69" t="s">
+        <v>763</v>
+      </c>
+      <c r="L69" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -3879,14 +5254,26 @@
       <c r="C70" t="s">
         <v>382</v>
       </c>
+      <c r="D70" t="s">
+        <v>837</v>
+      </c>
       <c r="E70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F70" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>681</v>
+      </c>
+      <c r="G70" t="s">
+        <v>838</v>
+      </c>
+      <c r="K70" t="s">
+        <v>763</v>
+      </c>
+      <c r="L70" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -3896,14 +5283,26 @@
       <c r="C71" t="s">
         <v>383</v>
       </c>
+      <c r="D71" t="s">
+        <v>383</v>
+      </c>
       <c r="E71" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F71" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>682</v>
+      </c>
+      <c r="G71" t="s">
+        <v>839</v>
+      </c>
+      <c r="L71" t="s">
+        <v>763</v>
+      </c>
+      <c r="N71" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -3913,14 +5312,23 @@
       <c r="C72" t="s">
         <v>384</v>
       </c>
+      <c r="D72" t="s">
+        <v>840</v>
+      </c>
       <c r="E72" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F72" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>683</v>
+      </c>
+      <c r="G72" t="s">
+        <v>683</v>
+      </c>
+      <c r="M72" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -3930,14 +5338,23 @@
       <c r="C73" t="s">
         <v>385</v>
       </c>
+      <c r="D73" t="s">
+        <v>841</v>
+      </c>
       <c r="E73" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F73" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>684</v>
+      </c>
+      <c r="G73" t="s">
+        <v>842</v>
+      </c>
+      <c r="L73" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -3947,14 +5364,23 @@
       <c r="C74" t="s">
         <v>386</v>
       </c>
+      <c r="D74" t="s">
+        <v>843</v>
+      </c>
       <c r="E74" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F74" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>685</v>
+      </c>
+      <c r="G74" t="s">
+        <v>685</v>
+      </c>
+      <c r="L74" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -3964,14 +5390,23 @@
       <c r="C75" t="s">
         <v>387</v>
       </c>
+      <c r="D75" t="s">
+        <v>387</v>
+      </c>
       <c r="E75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F75" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>686</v>
+      </c>
+      <c r="G75" t="s">
+        <v>844</v>
+      </c>
+      <c r="K75" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -3981,14 +5416,32 @@
       <c r="C76" t="s">
         <v>388</v>
       </c>
+      <c r="D76" t="s">
+        <v>846</v>
+      </c>
       <c r="E76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F76" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>687</v>
+      </c>
+      <c r="G76" t="s">
+        <v>845</v>
+      </c>
+      <c r="I76" t="s">
+        <v>763</v>
+      </c>
+      <c r="J76" t="s">
+        <v>763</v>
+      </c>
+      <c r="K76" t="s">
+        <v>763</v>
+      </c>
+      <c r="M76" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -3998,14 +5451,23 @@
       <c r="C77" t="s">
         <v>389</v>
       </c>
+      <c r="D77" t="s">
+        <v>847</v>
+      </c>
       <c r="E77" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F77" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>688</v>
+      </c>
+      <c r="G77" t="s">
+        <v>848</v>
+      </c>
+      <c r="L77" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -4015,14 +5477,29 @@
       <c r="C78" t="s">
         <v>390</v>
       </c>
+      <c r="D78" t="s">
+        <v>849</v>
+      </c>
       <c r="E78" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F78" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>689</v>
+      </c>
+      <c r="G78" t="s">
+        <v>850</v>
+      </c>
+      <c r="H78" t="s">
+        <v>763</v>
+      </c>
+      <c r="K78" t="s">
+        <v>763</v>
+      </c>
+      <c r="L78" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4032,14 +5509,26 @@
       <c r="C79" t="s">
         <v>391</v>
       </c>
+      <c r="D79" t="s">
+        <v>851</v>
+      </c>
       <c r="E79" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F79" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>690</v>
+      </c>
+      <c r="G79" t="s">
+        <v>852</v>
+      </c>
+      <c r="K79" t="s">
+        <v>763</v>
+      </c>
+      <c r="M79" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -4049,14 +5538,26 @@
       <c r="C80" t="s">
         <v>392</v>
       </c>
+      <c r="D80" t="s">
+        <v>853</v>
+      </c>
       <c r="E80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F80" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>691</v>
+      </c>
+      <c r="G80" t="s">
+        <v>854</v>
+      </c>
+      <c r="K80" t="s">
+        <v>763</v>
+      </c>
+      <c r="M80" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4066,14 +5567,32 @@
       <c r="C81" t="s">
         <v>393</v>
       </c>
+      <c r="D81" t="s">
+        <v>855</v>
+      </c>
       <c r="E81" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F81" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>692</v>
+      </c>
+      <c r="G81" t="s">
+        <v>856</v>
+      </c>
+      <c r="H81" t="s">
+        <v>763</v>
+      </c>
+      <c r="I81" t="s">
+        <v>763</v>
+      </c>
+      <c r="K81" t="s">
+        <v>763</v>
+      </c>
+      <c r="M81" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -4083,14 +5602,26 @@
       <c r="C82" t="s">
         <v>394</v>
       </c>
+      <c r="D82" t="s">
+        <v>857</v>
+      </c>
       <c r="E82" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F82" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>693</v>
+      </c>
+      <c r="G82" t="s">
+        <v>858</v>
+      </c>
+      <c r="K82" t="s">
+        <v>763</v>
+      </c>
+      <c r="L82" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -4100,14 +5631,32 @@
       <c r="C83" t="s">
         <v>395</v>
       </c>
+      <c r="D83" t="s">
+        <v>859</v>
+      </c>
       <c r="E83" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F83" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>694</v>
+      </c>
+      <c r="G83" t="s">
+        <v>860</v>
+      </c>
+      <c r="H83" t="s">
+        <v>763</v>
+      </c>
+      <c r="I83" t="s">
+        <v>763</v>
+      </c>
+      <c r="K83" t="s">
+        <v>763</v>
+      </c>
+      <c r="M83" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -4117,14 +5666,26 @@
       <c r="C84" t="s">
         <v>396</v>
       </c>
+      <c r="D84" t="s">
+        <v>861</v>
+      </c>
       <c r="E84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F84" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>695</v>
+      </c>
+      <c r="G84" t="s">
+        <v>862</v>
+      </c>
+      <c r="K84" t="s">
+        <v>763</v>
+      </c>
+      <c r="M84" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -4134,14 +5695,23 @@
       <c r="C85" t="s">
         <v>397</v>
       </c>
+      <c r="D85" t="s">
+        <v>397</v>
+      </c>
       <c r="E85" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F85" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>696</v>
+      </c>
+      <c r="G85" t="s">
+        <v>696</v>
+      </c>
+      <c r="M85" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -4151,14 +5721,26 @@
       <c r="C86" t="s">
         <v>398</v>
       </c>
+      <c r="D86" t="s">
+        <v>398</v>
+      </c>
       <c r="E86" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F86" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>697</v>
+      </c>
+      <c r="G86" t="s">
+        <v>863</v>
+      </c>
+      <c r="K86" t="s">
+        <v>763</v>
+      </c>
+      <c r="N86" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -4168,14 +5750,29 @@
       <c r="C87" t="s">
         <v>399</v>
       </c>
+      <c r="D87" t="s">
+        <v>399</v>
+      </c>
       <c r="E87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F87" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>698</v>
+      </c>
+      <c r="G87" t="s">
+        <v>864</v>
+      </c>
+      <c r="I87" t="s">
+        <v>763</v>
+      </c>
+      <c r="K87" t="s">
+        <v>763</v>
+      </c>
+      <c r="M87" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -4185,14 +5782,23 @@
       <c r="C88" t="s">
         <v>400</v>
       </c>
+      <c r="D88" t="s">
+        <v>400</v>
+      </c>
       <c r="E88" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F88" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>699</v>
+      </c>
+      <c r="G88" t="s">
+        <v>699</v>
+      </c>
+      <c r="N88" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -4202,14 +5808,23 @@
       <c r="C89" t="s">
         <v>401</v>
       </c>
+      <c r="D89" t="s">
+        <v>865</v>
+      </c>
       <c r="E89" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F89" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>700</v>
+      </c>
+      <c r="G89" t="s">
+        <v>700</v>
+      </c>
+      <c r="M89" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -4219,14 +5834,29 @@
       <c r="C90" t="s">
         <v>402</v>
       </c>
+      <c r="D90" t="s">
+        <v>866</v>
+      </c>
       <c r="E90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F90" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>701</v>
+      </c>
+      <c r="G90" t="s">
+        <v>867</v>
+      </c>
+      <c r="I90" t="s">
+        <v>763</v>
+      </c>
+      <c r="K90" t="s">
+        <v>763</v>
+      </c>
+      <c r="M90" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -4236,14 +5866,23 @@
       <c r="C91" t="s">
         <v>403</v>
       </c>
+      <c r="D91" t="s">
+        <v>403</v>
+      </c>
       <c r="E91" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F91" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>702</v>
+      </c>
+      <c r="G91" t="s">
+        <v>702</v>
+      </c>
+      <c r="N91" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -4253,14 +5892,26 @@
       <c r="C92" t="s">
         <v>404</v>
       </c>
+      <c r="D92" t="s">
+        <v>404</v>
+      </c>
       <c r="E92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F92" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>703</v>
+      </c>
+      <c r="G92" t="s">
+        <v>868</v>
+      </c>
+      <c r="K92" t="s">
+        <v>763</v>
+      </c>
+      <c r="N92" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -4270,14 +5921,23 @@
       <c r="C93" t="s">
         <v>405</v>
       </c>
+      <c r="D93" t="s">
+        <v>869</v>
+      </c>
       <c r="E93" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F93" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>704</v>
+      </c>
+      <c r="G93" t="s">
+        <v>704</v>
+      </c>
+      <c r="M93" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -4287,14 +5947,29 @@
       <c r="C94" t="s">
         <v>406</v>
       </c>
+      <c r="D94" t="s">
+        <v>870</v>
+      </c>
       <c r="E94" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F94" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>705</v>
+      </c>
+      <c r="G94" t="s">
+        <v>941</v>
+      </c>
+      <c r="H94" t="s">
+        <v>763</v>
+      </c>
+      <c r="K94" t="s">
+        <v>763</v>
+      </c>
+      <c r="L94" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -4304,14 +5979,23 @@
       <c r="C95" t="s">
         <v>407</v>
       </c>
+      <c r="D95" t="s">
+        <v>871</v>
+      </c>
       <c r="E95" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F95" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>706</v>
+      </c>
+      <c r="G95" t="s">
+        <v>706</v>
+      </c>
+      <c r="L95" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -4321,14 +6005,29 @@
       <c r="C96" t="s">
         <v>408</v>
       </c>
+      <c r="D96" t="s">
+        <v>942</v>
+      </c>
       <c r="E96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F96" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>707</v>
+      </c>
+      <c r="G96" t="s">
+        <v>943</v>
+      </c>
+      <c r="K96" t="s">
+        <v>763</v>
+      </c>
+      <c r="L96" t="s">
+        <v>763</v>
+      </c>
+      <c r="M96" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -4338,14 +6037,23 @@
       <c r="C97" t="s">
         <v>409</v>
       </c>
+      <c r="D97" t="s">
+        <v>409</v>
+      </c>
       <c r="E97" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F97" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>708</v>
+      </c>
+      <c r="G97" t="s">
+        <v>708</v>
+      </c>
+      <c r="N97" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -4355,14 +6063,32 @@
       <c r="C98" t="s">
         <v>410</v>
       </c>
+      <c r="D98" t="s">
+        <v>872</v>
+      </c>
       <c r="E98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F98" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>709</v>
+      </c>
+      <c r="G98" t="s">
+        <v>873</v>
+      </c>
+      <c r="I98" t="s">
+        <v>763</v>
+      </c>
+      <c r="J98" t="s">
+        <v>763</v>
+      </c>
+      <c r="K98" t="s">
+        <v>763</v>
+      </c>
+      <c r="L98" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -4372,14 +6098,26 @@
       <c r="C99" t="s">
         <v>411</v>
       </c>
+      <c r="D99" t="s">
+        <v>874</v>
+      </c>
       <c r="E99" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F99" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>710</v>
+      </c>
+      <c r="G99" t="s">
+        <v>875</v>
+      </c>
+      <c r="I99" t="s">
+        <v>763</v>
+      </c>
+      <c r="K99" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -4387,16 +6125,28 @@
         <v>262</v>
       </c>
       <c r="C100" t="s">
-        <v>412</v>
+        <v>876</v>
+      </c>
+      <c r="D100" t="s">
+        <v>944</v>
       </c>
       <c r="E100" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F100" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>711</v>
+      </c>
+      <c r="G100" t="s">
+        <v>877</v>
+      </c>
+      <c r="K100" t="s">
+        <v>763</v>
+      </c>
+      <c r="M100" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -4404,16 +6154,28 @@
         <v>263</v>
       </c>
       <c r="C101" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+      <c r="D101" t="s">
+        <v>878</v>
       </c>
       <c r="E101" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F101" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>712</v>
+      </c>
+      <c r="G101" t="s">
+        <v>879</v>
+      </c>
+      <c r="K101" t="s">
+        <v>763</v>
+      </c>
+      <c r="M101" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -4421,16 +6183,25 @@
         <v>264</v>
       </c>
       <c r="C102" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="D102" t="s">
+        <v>413</v>
       </c>
       <c r="E102" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F102" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>713</v>
+      </c>
+      <c r="G102" t="s">
+        <v>880</v>
+      </c>
+      <c r="K102" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -4438,16 +6209,25 @@
         <v>265</v>
       </c>
       <c r="C103" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="D103" t="s">
+        <v>414</v>
       </c>
       <c r="E103" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F103" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>714</v>
+      </c>
+      <c r="G103" t="s">
+        <v>714</v>
+      </c>
+      <c r="N103" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -4455,16 +6235,28 @@
         <v>266</v>
       </c>
       <c r="C104" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+      <c r="D104" t="s">
+        <v>881</v>
       </c>
       <c r="E104" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F104" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>715</v>
+      </c>
+      <c r="G104" t="s">
+        <v>882</v>
+      </c>
+      <c r="K104" t="s">
+        <v>763</v>
+      </c>
+      <c r="L104" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -4472,16 +6264,25 @@
         <v>267</v>
       </c>
       <c r="C105" t="s">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="D105" t="s">
+        <v>416</v>
       </c>
       <c r="E105" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F105" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>716</v>
+      </c>
+      <c r="G105" t="s">
+        <v>716</v>
+      </c>
+      <c r="N105" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -4489,16 +6290,28 @@
         <v>268</v>
       </c>
       <c r="C106" t="s">
-        <v>418</v>
+        <v>417</v>
+      </c>
+      <c r="D106" t="s">
+        <v>417</v>
       </c>
       <c r="E106" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F106" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>717</v>
+      </c>
+      <c r="G106" t="s">
+        <v>883</v>
+      </c>
+      <c r="K106" t="s">
+        <v>763</v>
+      </c>
+      <c r="N106" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -4506,16 +6319,28 @@
         <v>269</v>
       </c>
       <c r="C107" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="D107" t="s">
+        <v>884</v>
       </c>
       <c r="E107" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F107" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>718</v>
+      </c>
+      <c r="G107" t="s">
+        <v>885</v>
+      </c>
+      <c r="I107" t="s">
+        <v>763</v>
+      </c>
+      <c r="K107" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -4523,16 +6348,25 @@
         <v>270</v>
       </c>
       <c r="C108" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+      <c r="D108" t="s">
+        <v>419</v>
       </c>
       <c r="E108" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F108" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>719</v>
+      </c>
+      <c r="G108" t="s">
+        <v>719</v>
+      </c>
+      <c r="N108" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -4540,16 +6374,28 @@
         <v>271</v>
       </c>
       <c r="C109" t="s">
-        <v>421</v>
+        <v>420</v>
+      </c>
+      <c r="D109" t="s">
+        <v>886</v>
       </c>
       <c r="E109" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F109" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>720</v>
+      </c>
+      <c r="G109" t="s">
+        <v>887</v>
+      </c>
+      <c r="K109" t="s">
+        <v>763</v>
+      </c>
+      <c r="M109" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -4557,16 +6403,28 @@
         <v>272</v>
       </c>
       <c r="C110" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="D110" t="s">
+        <v>888</v>
       </c>
       <c r="E110" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F110" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>721</v>
+      </c>
+      <c r="G110" t="s">
+        <v>721</v>
+      </c>
+      <c r="H110" t="s">
+        <v>763</v>
+      </c>
+      <c r="M110" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -4574,16 +6432,31 @@
         <v>273</v>
       </c>
       <c r="C111" t="s">
-        <v>423</v>
+        <v>422</v>
+      </c>
+      <c r="D111" t="s">
+        <v>889</v>
       </c>
       <c r="E111" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F111" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>722</v>
+      </c>
+      <c r="G111" t="s">
+        <v>890</v>
+      </c>
+      <c r="K111" t="s">
+        <v>763</v>
+      </c>
+      <c r="L111" t="s">
+        <v>763</v>
+      </c>
+      <c r="M111" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -4591,16 +6464,34 @@
         <v>274</v>
       </c>
       <c r="C112" t="s">
-        <v>424</v>
+        <v>423</v>
+      </c>
+      <c r="D112" t="s">
+        <v>891</v>
       </c>
       <c r="E112" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F112" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>723</v>
+      </c>
+      <c r="G112" t="s">
+        <v>892</v>
+      </c>
+      <c r="I112" t="s">
+        <v>763</v>
+      </c>
+      <c r="J112" t="s">
+        <v>763</v>
+      </c>
+      <c r="K112" t="s">
+        <v>763</v>
+      </c>
+      <c r="L112" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -4608,16 +6499,28 @@
         <v>275</v>
       </c>
       <c r="C113" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="D113" t="s">
+        <v>945</v>
       </c>
       <c r="E113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F113" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>724</v>
+      </c>
+      <c r="G113" t="s">
+        <v>893</v>
+      </c>
+      <c r="K113" t="s">
+        <v>763</v>
+      </c>
+      <c r="L113" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -4625,16 +6528,28 @@
         <v>276</v>
       </c>
       <c r="C114" t="s">
-        <v>426</v>
+        <v>425</v>
+      </c>
+      <c r="D114" t="s">
+        <v>894</v>
       </c>
       <c r="E114" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F114" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>725</v>
+      </c>
+      <c r="G114" t="s">
+        <v>895</v>
+      </c>
+      <c r="K114" t="s">
+        <v>763</v>
+      </c>
+      <c r="L114" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -4642,16 +6557,28 @@
         <v>277</v>
       </c>
       <c r="C115" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="D115" t="s">
+        <v>426</v>
       </c>
       <c r="E115" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F115" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>726</v>
+      </c>
+      <c r="G115" t="s">
+        <v>946</v>
+      </c>
+      <c r="K115" t="s">
+        <v>763</v>
+      </c>
+      <c r="N115" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -4659,16 +6586,31 @@
         <v>278</v>
       </c>
       <c r="C116" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="D116" t="s">
+        <v>896</v>
       </c>
       <c r="E116" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F116" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>727</v>
+      </c>
+      <c r="G116" t="s">
+        <v>897</v>
+      </c>
+      <c r="H116" t="s">
+        <v>763</v>
+      </c>
+      <c r="I116" t="s">
+        <v>763</v>
+      </c>
+      <c r="K116" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -4676,16 +6618,31 @@
         <v>279</v>
       </c>
       <c r="C117" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+      <c r="D117" t="s">
+        <v>898</v>
       </c>
       <c r="E117" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F117" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>728</v>
+      </c>
+      <c r="G117" t="s">
+        <v>899</v>
+      </c>
+      <c r="I117" t="s">
+        <v>763</v>
+      </c>
+      <c r="K117" t="s">
+        <v>763</v>
+      </c>
+      <c r="L117" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -4693,16 +6650,28 @@
         <v>280</v>
       </c>
       <c r="C118" t="s">
-        <v>430</v>
+        <v>429</v>
+      </c>
+      <c r="D118" t="s">
+        <v>900</v>
       </c>
       <c r="E118" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F118" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>729</v>
+      </c>
+      <c r="G118" t="s">
+        <v>901</v>
+      </c>
+      <c r="J118" t="s">
+        <v>763</v>
+      </c>
+      <c r="K118" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -4710,16 +6679,25 @@
         <v>281</v>
       </c>
       <c r="C119" t="s">
-        <v>431</v>
+        <v>430</v>
+      </c>
+      <c r="D119" t="s">
+        <v>430</v>
       </c>
       <c r="E119" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F119" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>730</v>
+      </c>
+      <c r="G119" t="s">
+        <v>730</v>
+      </c>
+      <c r="N119" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -4727,16 +6705,31 @@
         <v>282</v>
       </c>
       <c r="C120" t="s">
-        <v>432</v>
+        <v>431</v>
+      </c>
+      <c r="D120" t="s">
+        <v>902</v>
       </c>
       <c r="E120" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F120" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>731</v>
+      </c>
+      <c r="G120" t="s">
+        <v>903</v>
+      </c>
+      <c r="H120" t="s">
+        <v>763</v>
+      </c>
+      <c r="K120" t="s">
+        <v>763</v>
+      </c>
+      <c r="M120" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -4744,16 +6737,25 @@
         <v>283</v>
       </c>
       <c r="C121" t="s">
-        <v>433</v>
+        <v>432</v>
+      </c>
+      <c r="D121" t="s">
+        <v>432</v>
       </c>
       <c r="E121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F121" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>732</v>
+      </c>
+      <c r="G121" t="s">
+        <v>732</v>
+      </c>
+      <c r="N121" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -4761,16 +6763,28 @@
         <v>284</v>
       </c>
       <c r="C122" t="s">
-        <v>434</v>
+        <v>433</v>
+      </c>
+      <c r="D122" t="s">
+        <v>433</v>
       </c>
       <c r="E122" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F122" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>733</v>
+      </c>
+      <c r="G122" t="s">
+        <v>904</v>
+      </c>
+      <c r="K122" t="s">
+        <v>763</v>
+      </c>
+      <c r="N122" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -4778,16 +6792,28 @@
         <v>285</v>
       </c>
       <c r="C123" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="D123" t="s">
+        <v>905</v>
       </c>
       <c r="E123" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F123" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>734</v>
+      </c>
+      <c r="G123" t="s">
+        <v>906</v>
+      </c>
+      <c r="K123" t="s">
+        <v>763</v>
+      </c>
+      <c r="L123" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -4795,16 +6821,28 @@
         <v>286</v>
       </c>
       <c r="C124" t="s">
-        <v>436</v>
+        <v>435</v>
+      </c>
+      <c r="D124" t="s">
+        <v>907</v>
       </c>
       <c r="E124" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F124" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>735</v>
+      </c>
+      <c r="G124" t="s">
+        <v>735</v>
+      </c>
+      <c r="H124" t="s">
+        <v>763</v>
+      </c>
+      <c r="L124" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -4812,16 +6850,28 @@
         <v>287</v>
       </c>
       <c r="C125" t="s">
-        <v>437</v>
+        <v>436</v>
+      </c>
+      <c r="D125" t="s">
+        <v>908</v>
       </c>
       <c r="E125" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F125" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>736</v>
+      </c>
+      <c r="G125" t="s">
+        <v>909</v>
+      </c>
+      <c r="K125" t="s">
+        <v>763</v>
+      </c>
+      <c r="M125" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -4829,16 +6879,28 @@
         <v>288</v>
       </c>
       <c r="C126" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="D126" t="s">
+        <v>910</v>
       </c>
       <c r="E126" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F126" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>737</v>
+      </c>
+      <c r="G126" t="s">
+        <v>911</v>
+      </c>
+      <c r="H126" t="s">
+        <v>763</v>
+      </c>
+      <c r="K126" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -4846,16 +6908,31 @@
         <v>289</v>
       </c>
       <c r="C127" t="s">
-        <v>439</v>
+        <v>438</v>
+      </c>
+      <c r="D127" t="s">
+        <v>912</v>
       </c>
       <c r="E127" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F127" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>738</v>
+      </c>
+      <c r="G127" t="s">
+        <v>913</v>
+      </c>
+      <c r="I127" t="s">
+        <v>763</v>
+      </c>
+      <c r="J127" t="s">
+        <v>763</v>
+      </c>
+      <c r="K127" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -4863,16 +6940,25 @@
         <v>290</v>
       </c>
       <c r="C128" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="D128" t="s">
+        <v>439</v>
       </c>
       <c r="E128" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F128" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>739</v>
+      </c>
+      <c r="G128" t="s">
+        <v>739</v>
+      </c>
+      <c r="N128" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -4880,16 +6966,28 @@
         <v>291</v>
       </c>
       <c r="C129" t="s">
-        <v>441</v>
+        <v>440</v>
+      </c>
+      <c r="D129" t="s">
+        <v>914</v>
       </c>
       <c r="E129" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F129" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>740</v>
+      </c>
+      <c r="G129" t="s">
+        <v>915</v>
+      </c>
+      <c r="K129" t="s">
+        <v>763</v>
+      </c>
+      <c r="M129" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -4897,16 +6995,31 @@
         <v>292</v>
       </c>
       <c r="C130" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="D130" t="s">
+        <v>916</v>
       </c>
       <c r="E130" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F130" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>741</v>
+      </c>
+      <c r="G130" t="s">
+        <v>917</v>
+      </c>
+      <c r="I130" t="s">
+        <v>763</v>
+      </c>
+      <c r="K130" t="s">
+        <v>763</v>
+      </c>
+      <c r="M130" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -4914,16 +7027,25 @@
         <v>293</v>
       </c>
       <c r="C131" t="s">
-        <v>443</v>
+        <v>442</v>
+      </c>
+      <c r="D131" t="s">
+        <v>918</v>
       </c>
       <c r="E131" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F131" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>742</v>
+      </c>
+      <c r="G131" t="s">
+        <v>742</v>
+      </c>
+      <c r="M131" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -4931,16 +7053,25 @@
         <v>294</v>
       </c>
       <c r="C132" t="s">
-        <v>444</v>
+        <v>443</v>
+      </c>
+      <c r="D132" t="s">
+        <v>443</v>
       </c>
       <c r="E132" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F132" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>743</v>
+      </c>
+      <c r="G132" t="s">
+        <v>743</v>
+      </c>
+      <c r="N132" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -4948,16 +7079,31 @@
         <v>295</v>
       </c>
       <c r="C133" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+      <c r="D133" t="s">
+        <v>919</v>
       </c>
       <c r="E133" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F133" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>744</v>
+      </c>
+      <c r="G133" t="s">
+        <v>744</v>
+      </c>
+      <c r="H133" t="s">
+        <v>763</v>
+      </c>
+      <c r="L133" t="s">
+        <v>763</v>
+      </c>
+      <c r="M133" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -4965,16 +7111,25 @@
         <v>296</v>
       </c>
       <c r="C134" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="D134" t="s">
+        <v>920</v>
       </c>
       <c r="E134" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F134" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>745</v>
+      </c>
+      <c r="G134" t="s">
+        <v>745</v>
+      </c>
+      <c r="H134" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -4982,16 +7137,34 @@
         <v>297</v>
       </c>
       <c r="C135" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+      <c r="D135" t="s">
+        <v>921</v>
       </c>
       <c r="E135" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F135" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>746</v>
+      </c>
+      <c r="G135" t="s">
+        <v>922</v>
+      </c>
+      <c r="I135" t="s">
+        <v>763</v>
+      </c>
+      <c r="K135" t="s">
+        <v>763</v>
+      </c>
+      <c r="L135" t="s">
+        <v>763</v>
+      </c>
+      <c r="M135" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -4999,16 +7172,28 @@
         <v>298</v>
       </c>
       <c r="C136" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="D136" t="s">
+        <v>923</v>
       </c>
       <c r="E136" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F136" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>747</v>
+      </c>
+      <c r="G136" t="s">
+        <v>924</v>
+      </c>
+      <c r="K136" t="s">
+        <v>763</v>
+      </c>
+      <c r="L136" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -5016,16 +7201,28 @@
         <v>299</v>
       </c>
       <c r="C137" t="s">
-        <v>449</v>
+        <v>448</v>
+      </c>
+      <c r="D137" t="s">
+        <v>925</v>
       </c>
       <c r="E137" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F137" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>748</v>
+      </c>
+      <c r="G137" t="s">
+        <v>926</v>
+      </c>
+      <c r="J137" t="s">
+        <v>763</v>
+      </c>
+      <c r="M137" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -5033,16 +7230,25 @@
         <v>300</v>
       </c>
       <c r="C138" t="s">
-        <v>450</v>
+        <v>449</v>
+      </c>
+      <c r="D138" t="s">
+        <v>449</v>
       </c>
       <c r="E138" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F138" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>749</v>
+      </c>
+      <c r="G138" t="s">
+        <v>749</v>
+      </c>
+      <c r="N138" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -5050,16 +7256,25 @@
         <v>301</v>
       </c>
       <c r="C139" t="s">
-        <v>451</v>
+        <v>450</v>
+      </c>
+      <c r="D139" t="s">
+        <v>450</v>
       </c>
       <c r="E139" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F139" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>750</v>
+      </c>
+      <c r="G139" t="s">
+        <v>750</v>
+      </c>
+      <c r="N139" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -5067,16 +7282,28 @@
         <v>302</v>
       </c>
       <c r="C140" t="s">
-        <v>452</v>
+        <v>451</v>
+      </c>
+      <c r="D140" t="s">
+        <v>927</v>
       </c>
       <c r="E140" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F140" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>751</v>
+      </c>
+      <c r="G140" t="s">
+        <v>928</v>
+      </c>
+      <c r="K140" t="s">
+        <v>763</v>
+      </c>
+      <c r="L140" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -5084,16 +7311,28 @@
         <v>303</v>
       </c>
       <c r="C141" t="s">
-        <v>453</v>
+        <v>452</v>
+      </c>
+      <c r="D141" t="s">
+        <v>929</v>
       </c>
       <c r="E141" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F141" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>752</v>
+      </c>
+      <c r="G141" t="s">
+        <v>930</v>
+      </c>
+      <c r="H141" t="s">
+        <v>763</v>
+      </c>
+      <c r="K141" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -5101,16 +7340,25 @@
         <v>304</v>
       </c>
       <c r="C142" t="s">
-        <v>454</v>
+        <v>453</v>
+      </c>
+      <c r="D142" t="s">
+        <v>453</v>
       </c>
       <c r="E142" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F142" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>753</v>
+      </c>
+      <c r="G142" t="s">
+        <v>753</v>
+      </c>
+      <c r="N142" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -5118,16 +7366,31 @@
         <v>305</v>
       </c>
       <c r="C143" t="s">
-        <v>455</v>
+        <v>454</v>
+      </c>
+      <c r="D143" t="s">
+        <v>931</v>
       </c>
       <c r="E143" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F143" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>754</v>
+      </c>
+      <c r="G143" t="s">
+        <v>932</v>
+      </c>
+      <c r="K143" t="s">
+        <v>763</v>
+      </c>
+      <c r="L143" t="s">
+        <v>763</v>
+      </c>
+      <c r="M143" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -5135,16 +7398,25 @@
         <v>306</v>
       </c>
       <c r="C144" t="s">
-        <v>456</v>
+        <v>455</v>
+      </c>
+      <c r="D144" t="s">
+        <v>455</v>
       </c>
       <c r="E144" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F144" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>755</v>
+      </c>
+      <c r="G144" t="s">
+        <v>755</v>
+      </c>
+      <c r="N144" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -5152,16 +7424,25 @@
         <v>307</v>
       </c>
       <c r="C145" t="s">
-        <v>457</v>
+        <v>456</v>
+      </c>
+      <c r="D145" t="s">
+        <v>456</v>
       </c>
       <c r="E145" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F145" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>756</v>
+      </c>
+      <c r="G145" t="s">
+        <v>756</v>
+      </c>
+      <c r="N145" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -5169,16 +7450,28 @@
         <v>308</v>
       </c>
       <c r="C146" t="s">
-        <v>458</v>
+        <v>457</v>
+      </c>
+      <c r="D146" t="s">
+        <v>933</v>
       </c>
       <c r="E146" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F146" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>757</v>
+      </c>
+      <c r="G146" t="s">
+        <v>934</v>
+      </c>
+      <c r="K146" t="s">
+        <v>763</v>
+      </c>
+      <c r="L146" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -5186,16 +7479,16 @@
         <v>309</v>
       </c>
       <c r="C147" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E147" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F147" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -5203,16 +7496,31 @@
         <v>310</v>
       </c>
       <c r="C148" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="D148" t="s">
+        <v>935</v>
       </c>
       <c r="E148" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F148" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>759</v>
+      </c>
+      <c r="G148" t="s">
+        <v>936</v>
+      </c>
+      <c r="K148" t="s">
+        <v>763</v>
+      </c>
+      <c r="L148" t="s">
+        <v>763</v>
+      </c>
+      <c r="M148" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -5220,16 +7528,28 @@
         <v>311</v>
       </c>
       <c r="C149" t="s">
-        <v>461</v>
+        <v>460</v>
+      </c>
+      <c r="D149" t="s">
+        <v>460</v>
       </c>
       <c r="E149" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F149" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>760</v>
+      </c>
+      <c r="G149" t="s">
+        <v>937</v>
+      </c>
+      <c r="K149" t="s">
+        <v>763</v>
+      </c>
+      <c r="N149" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -5237,16 +7557,28 @@
         <v>312</v>
       </c>
       <c r="C150" t="s">
-        <v>462</v>
+        <v>461</v>
+      </c>
+      <c r="D150" t="s">
+        <v>461</v>
       </c>
       <c r="E150" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F150" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>761</v>
+      </c>
+      <c r="G150" t="s">
+        <v>947</v>
+      </c>
+      <c r="K150" t="s">
+        <v>763</v>
+      </c>
+      <c r="N150" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -5254,16 +7586,34 @@
         <v>313</v>
       </c>
       <c r="C151" t="s">
-        <v>463</v>
+        <v>462</v>
+      </c>
+      <c r="D151" t="s">
+        <v>938</v>
       </c>
       <c r="E151" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F151" t="s">
-        <v>763</v>
+        <v>762</v>
+      </c>
+      <c r="G151" t="s">
+        <v>939</v>
+      </c>
+      <c r="K151" t="s">
+        <v>763</v>
+      </c>
+      <c r="M151" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048576" t="s">
+        <v>920</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Review files/qald9_test_set_review_table.xlsx
+++ b/Review files/qald9_test_set_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623D8522-6BFC-44CB-B442-D94938D756F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71DA56C-D82F-482C-A1BE-D09933EE4575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="950">
   <si>
     <t>id</t>
   </si>
@@ -2864,6 +2864,12 @@
   </si>
   <si>
     <t>página de Web,  empresas,  empleados,  más de 500000</t>
+  </si>
+  <si>
+    <t>¿En qué rutas de senderismo del Gran Cañón no hay riesgo de inundaciones repentinas?</t>
+  </si>
+  <si>
+    <t>rutas senderismo,  Gran Cañón,  no riesgo,  inundaciones repentinas</t>
   </si>
 </sst>
 </file>
@@ -3265,11 +3271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L150" sqref="L150"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7481,11 +7487,23 @@
       <c r="C147" t="s">
         <v>458</v>
       </c>
+      <c r="D147" t="s">
+        <v>948</v>
+      </c>
       <c r="E147" t="s">
         <v>608</v>
       </c>
       <c r="F147" t="s">
         <v>758</v>
+      </c>
+      <c r="G147" t="s">
+        <v>949</v>
+      </c>
+      <c r="K147" t="s">
+        <v>763</v>
+      </c>
+      <c r="M147" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -7605,11 +7623,6 @@
       </c>
       <c r="M151" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="1048576" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1048576" t="s">
-        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/Review files/qald9_test_set_review_table.xlsx
+++ b/Review files/qald9_test_set_review_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71DA56C-D82F-482C-A1BE-D09933EE4575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF7BBA-32EB-4581-87C8-5650F860421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="956">
   <si>
     <t>id</t>
   </si>
@@ -2452,12 +2452,6 @@
     <t>río, más largo, China</t>
   </si>
   <si>
-    <t>¿Cuál es el prefijo de Berlín?</t>
-  </si>
-  <si>
-    <t>prefijo,  Berlín</t>
-  </si>
-  <si>
     <t>¿Cuántos científicos se han graduado de una Universidad de la Ivy League?</t>
   </si>
   <si>
@@ -2512,9 +2506,6 @@
     <t>Universidad Libre de Ámsterdam,  estudiantes</t>
   </si>
   <si>
-    <t>¿Cuántos son los ingresos generados por IBM?</t>
-  </si>
-  <si>
     <t xml:space="preserve">ingresos, IBM </t>
   </si>
   <si>
@@ -2569,9 +2560,6 @@
     <t>muerte, creador, Drácula</t>
   </si>
   <si>
-    <t>¿Quién creó la Wikipedia en inglés?</t>
-  </si>
-  <si>
     <t xml:space="preserve">creador, Inglés, Wikipedia </t>
   </si>
   <si>
@@ -2605,9 +2593,6 @@
     <t>Lago Chiem, profundidad</t>
   </si>
   <si>
-    <t>¿Qué empresas operan tanto en la industria aeroespacial como en la industria médica?</t>
-  </si>
-  <si>
     <t>empresas,  industria aeroespacial, industria médica</t>
   </si>
   <si>
@@ -2662,12 +2647,6 @@
     <t>Ramones,  lado B</t>
   </si>
   <si>
-    <t>apodo,  Scarface</t>
-  </si>
-  <si>
-    <t>¿Dónde se encuentra el Fort Knox?</t>
-  </si>
-  <si>
     <t>Fort Knox, ubicación</t>
   </si>
   <si>
@@ -2728,9 +2707,6 @@
     <t>políticos, casados, alemán</t>
   </si>
   <si>
-    <t>¿Es el nombre de la esposa del presidente Obama Michelle?</t>
-  </si>
-  <si>
     <t xml:space="preserve">esposa,  presidente, Obama,  nombre, Michelle </t>
   </si>
   <si>
@@ -2764,12 +2740,6 @@
     <t>sitio web oficial ,   actores , programa de televisión, Charmed</t>
   </si>
   <si>
-    <t>¿Qué librerías fueron fundadas antes de 1400?</t>
-  </si>
-  <si>
-    <t>librerías, fundadas,  antes de 1400</t>
-  </si>
-  <si>
     <t>¿Qué islas pertenecientes a las islas Frisias son parte de los Países Bajos?</t>
   </si>
   <si>
@@ -2815,9 +2785,6 @@
     <t>Cat Stevens,  instrumentos,  toca</t>
   </si>
   <si>
-    <t>¿Quién era llamado Rodzilla?</t>
-  </si>
-  <si>
     <t>apodo,  Rodzilla</t>
   </si>
   <si>
@@ -2836,12 +2803,6 @@
     <t xml:space="preserve">más grande, estado , Estados Unidos </t>
   </si>
   <si>
-    <t>¿Cómo se llamaban las tres naves utilizadas por Colón?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres naves ,   nombre ,   Colón </t>
-  </si>
-  <si>
     <t>programa de viajero frecuente, más aerolíneas</t>
   </si>
   <si>
@@ -2870,6 +2831,63 @@
   </si>
   <si>
     <t>rutas senderismo,  Gran Cañón,  no riesgo,  inundaciones repentinas</t>
+  </si>
+  <si>
+    <t>Dame la página web de Forbes.</t>
+  </si>
+  <si>
+    <t>¿Cuál es el código de área de Berlín?</t>
+  </si>
+  <si>
+    <t>código de área,  Berlín</t>
+  </si>
+  <si>
+    <t>¿Cuándo le dispararon a Carlo Giuliani?</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los ingresos generados por IBM?</t>
+  </si>
+  <si>
+    <t>¿Quién creó Wikipedia en inglés?</t>
+  </si>
+  <si>
+    <t>¿Qué empresas trabajan tanto en la industria aeroespacial como en la medicina?</t>
+  </si>
+  <si>
+    <t>¿Quién se llamaba Caracortada?</t>
+  </si>
+  <si>
+    <t>apodo,  Caracortada</t>
+  </si>
+  <si>
+    <t>¿Qué hijas de condes británicos murieron en el mismo lugar donde nacieron?</t>
+  </si>
+  <si>
+    <t>hijas,  condes británicos,  murieron,  lugar de nacimiento</t>
+  </si>
+  <si>
+    <t>¿Dónde se encuentra ubicado Fort Knox?</t>
+  </si>
+  <si>
+    <t>¿La esposa del presidente Obama se llama Michelle?</t>
+  </si>
+  <si>
+    <t>¿Cuándo falleció Muhammad?</t>
+  </si>
+  <si>
+    <t>¿Quién era conocido como Rodzilla?</t>
+  </si>
+  <si>
+    <t>¿Cómo se llamaban los tres barcos utilizados por Colón?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres barcos ,   nombre ,   Colón </t>
+  </si>
+  <si>
+    <t>¿Qué librerías fueron construidas antes de 1400?</t>
+  </si>
+  <si>
+    <t>librerías, construidas,  antes de 1400</t>
   </si>
 </sst>
 </file>
@@ -3273,19 +3291,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K147" sqref="K147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="81.28515625" customWidth="1"/>
+    <col min="4" max="4" width="97.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
     <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="76.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3630,7 +3648,7 @@
         <v>623</v>
       </c>
       <c r="G12" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="K12" t="s">
         <v>763</v>
@@ -4108,7 +4126,7 @@
         <v>341</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>937</v>
       </c>
       <c r="E29" t="s">
         <v>490</v>
@@ -4119,7 +4137,7 @@
       <c r="G29" t="s">
         <v>640</v>
       </c>
-      <c r="N29" t="s">
+      <c r="H29" t="s">
         <v>763</v>
       </c>
     </row>
@@ -4508,7 +4526,7 @@
         <v>355</v>
       </c>
       <c r="D43" t="s">
-        <v>810</v>
+        <v>938</v>
       </c>
       <c r="E43" t="s">
         <v>504</v>
@@ -4517,12 +4535,15 @@
         <v>654</v>
       </c>
       <c r="G43" t="s">
-        <v>811</v>
+        <v>939</v>
       </c>
       <c r="K43" t="s">
         <v>763</v>
       </c>
       <c r="L43" t="s">
+        <v>763</v>
+      </c>
+      <c r="M43" t="s">
         <v>763</v>
       </c>
     </row>
@@ -4537,7 +4558,7 @@
         <v>356</v>
       </c>
       <c r="D44" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E44" t="s">
         <v>505</v>
@@ -4546,7 +4567,7 @@
         <v>655</v>
       </c>
       <c r="G44" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H44" t="s">
         <v>763</v>
@@ -4627,7 +4648,7 @@
         <v>658</v>
       </c>
       <c r="G47" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K47" t="s">
         <v>763</v>
@@ -4659,7 +4680,7 @@
         <v>659</v>
       </c>
       <c r="G48" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N48" t="s">
         <v>763</v>
@@ -4676,7 +4697,7 @@
         <v>361</v>
       </c>
       <c r="D49" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E49" t="s">
         <v>510</v>
@@ -4685,7 +4706,7 @@
         <v>660</v>
       </c>
       <c r="G49" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K49" t="s">
         <v>763</v>
@@ -4705,7 +4726,7 @@
         <v>362</v>
       </c>
       <c r="D50" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E50" t="s">
         <v>511</v>
@@ -4734,7 +4755,7 @@
         <v>363</v>
       </c>
       <c r="D51" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E51" t="s">
         <v>512</v>
@@ -4743,7 +4764,7 @@
         <v>662</v>
       </c>
       <c r="G51" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K51" t="s">
         <v>763</v>
@@ -4772,7 +4793,7 @@
         <v>663</v>
       </c>
       <c r="G52" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K52" t="s">
         <v>763</v>
@@ -4792,7 +4813,7 @@
         <v>365</v>
       </c>
       <c r="D53" t="s">
-        <v>365</v>
+        <v>940</v>
       </c>
       <c r="E53" t="s">
         <v>514</v>
@@ -4803,7 +4824,7 @@
       <c r="G53" t="s">
         <v>664</v>
       </c>
-      <c r="N53" t="s">
+      <c r="M53" t="s">
         <v>763</v>
       </c>
     </row>
@@ -4818,7 +4839,7 @@
         <v>366</v>
       </c>
       <c r="D54" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E54" t="s">
         <v>515</v>
@@ -4844,7 +4865,7 @@
         <v>367</v>
       </c>
       <c r="D55" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E55" t="s">
         <v>516</v>
@@ -4853,7 +4874,7 @@
         <v>666</v>
       </c>
       <c r="G55" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J55" t="s">
         <v>763</v>
@@ -4876,7 +4897,7 @@
         <v>368</v>
       </c>
       <c r="D56" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E56" t="s">
         <v>517</v>
@@ -4885,7 +4906,7 @@
         <v>667</v>
       </c>
       <c r="G56" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K56" t="s">
         <v>763</v>
@@ -4940,7 +4961,7 @@
         <v>669</v>
       </c>
       <c r="G58" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K58" t="s">
         <v>763</v>
@@ -5012,7 +5033,7 @@
         <v>373</v>
       </c>
       <c r="D61" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E61" t="s">
         <v>522</v>
@@ -5021,7 +5042,7 @@
         <v>672</v>
       </c>
       <c r="G61" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="K61" t="s">
         <v>763</v>
@@ -5041,7 +5062,7 @@
         <v>374</v>
       </c>
       <c r="D62" t="s">
-        <v>830</v>
+        <v>941</v>
       </c>
       <c r="E62" t="s">
         <v>523</v>
@@ -5050,7 +5071,7 @@
         <v>673</v>
       </c>
       <c r="G62" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="H62" t="s">
         <v>763</v>
@@ -5122,7 +5143,7 @@
         <v>377</v>
       </c>
       <c r="D65" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E65" t="s">
         <v>526</v>
@@ -5131,7 +5152,7 @@
         <v>676</v>
       </c>
       <c r="G65" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="J65" t="s">
         <v>763</v>
@@ -5180,7 +5201,7 @@
         <v>379</v>
       </c>
       <c r="D67" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E67" t="s">
         <v>528</v>
@@ -5232,7 +5253,7 @@
         <v>381</v>
       </c>
       <c r="D69" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E69" t="s">
         <v>530</v>
@@ -5241,7 +5262,7 @@
         <v>680</v>
       </c>
       <c r="G69" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="K69" t="s">
         <v>763</v>
@@ -5261,7 +5282,7 @@
         <v>382</v>
       </c>
       <c r="D70" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E70" t="s">
         <v>531</v>
@@ -5270,7 +5291,7 @@
         <v>681</v>
       </c>
       <c r="G70" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="K70" t="s">
         <v>763</v>
@@ -5299,7 +5320,7 @@
         <v>682</v>
       </c>
       <c r="G71" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="L71" t="s">
         <v>763</v>
@@ -5319,7 +5340,7 @@
         <v>384</v>
       </c>
       <c r="D72" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E72" t="s">
         <v>533</v>
@@ -5345,7 +5366,7 @@
         <v>385</v>
       </c>
       <c r="D73" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E73" t="s">
         <v>534</v>
@@ -5354,7 +5375,7 @@
         <v>684</v>
       </c>
       <c r="G73" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="L73" t="s">
         <v>763</v>
@@ -5371,7 +5392,7 @@
         <v>386</v>
       </c>
       <c r="D74" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E74" t="s">
         <v>535</v>
@@ -5406,7 +5427,7 @@
         <v>686</v>
       </c>
       <c r="G75" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="K75" t="s">
         <v>763</v>
@@ -5423,7 +5444,7 @@
         <v>388</v>
       </c>
       <c r="D76" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E76" t="s">
         <v>537</v>
@@ -5432,7 +5453,7 @@
         <v>687</v>
       </c>
       <c r="G76" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="I76" t="s">
         <v>763</v>
@@ -5458,7 +5479,7 @@
         <v>389</v>
       </c>
       <c r="D77" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E77" t="s">
         <v>538</v>
@@ -5467,7 +5488,7 @@
         <v>688</v>
       </c>
       <c r="G77" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="L77" t="s">
         <v>763</v>
@@ -5484,7 +5505,7 @@
         <v>390</v>
       </c>
       <c r="D78" t="s">
-        <v>849</v>
+        <v>942</v>
       </c>
       <c r="E78" t="s">
         <v>539</v>
@@ -5493,7 +5514,7 @@
         <v>689</v>
       </c>
       <c r="G78" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="H78" t="s">
         <v>763</v>
@@ -5502,6 +5523,9 @@
         <v>763</v>
       </c>
       <c r="L78" t="s">
+        <v>763</v>
+      </c>
+      <c r="M78" t="s">
         <v>763</v>
       </c>
     </row>
@@ -5516,7 +5540,7 @@
         <v>391</v>
       </c>
       <c r="D79" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E79" t="s">
         <v>540</v>
@@ -5525,7 +5549,7 @@
         <v>690</v>
       </c>
       <c r="G79" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="K79" t="s">
         <v>763</v>
@@ -5545,7 +5569,7 @@
         <v>392</v>
       </c>
       <c r="D80" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E80" t="s">
         <v>541</v>
@@ -5554,7 +5578,7 @@
         <v>691</v>
       </c>
       <c r="G80" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="K80" t="s">
         <v>763</v>
@@ -5574,7 +5598,7 @@
         <v>393</v>
       </c>
       <c r="D81" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E81" t="s">
         <v>542</v>
@@ -5583,7 +5607,7 @@
         <v>692</v>
       </c>
       <c r="G81" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="H81" t="s">
         <v>763</v>
@@ -5609,7 +5633,7 @@
         <v>394</v>
       </c>
       <c r="D82" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E82" t="s">
         <v>543</v>
@@ -5618,7 +5642,7 @@
         <v>693</v>
       </c>
       <c r="G82" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="K82" t="s">
         <v>763</v>
@@ -5638,7 +5662,7 @@
         <v>395</v>
       </c>
       <c r="D83" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E83" t="s">
         <v>544</v>
@@ -5647,7 +5671,7 @@
         <v>694</v>
       </c>
       <c r="G83" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="H83" t="s">
         <v>763</v>
@@ -5673,7 +5697,7 @@
         <v>396</v>
       </c>
       <c r="D84" t="s">
-        <v>861</v>
+        <v>943</v>
       </c>
       <c r="E84" t="s">
         <v>545</v>
@@ -5682,7 +5706,7 @@
         <v>695</v>
       </c>
       <c r="G84" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="K84" t="s">
         <v>763</v>
@@ -5737,7 +5761,7 @@
         <v>697</v>
       </c>
       <c r="G86" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="K86" t="s">
         <v>763</v>
@@ -5766,7 +5790,7 @@
         <v>698</v>
       </c>
       <c r="G87" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="I87" t="s">
         <v>763</v>
@@ -5815,7 +5839,7 @@
         <v>401</v>
       </c>
       <c r="D89" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E89" t="s">
         <v>550</v>
@@ -5841,7 +5865,7 @@
         <v>402</v>
       </c>
       <c r="D90" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E90" t="s">
         <v>551</v>
@@ -5850,7 +5874,7 @@
         <v>701</v>
       </c>
       <c r="G90" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="I90" t="s">
         <v>763</v>
@@ -5908,7 +5932,7 @@
         <v>703</v>
       </c>
       <c r="G92" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="K92" t="s">
         <v>763</v>
@@ -5928,7 +5952,7 @@
         <v>405</v>
       </c>
       <c r="D93" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E93" t="s">
         <v>554</v>
@@ -5954,7 +5978,7 @@
         <v>406</v>
       </c>
       <c r="D94" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E94" t="s">
         <v>555</v>
@@ -5963,7 +5987,7 @@
         <v>705</v>
       </c>
       <c r="G94" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="H94" t="s">
         <v>763</v>
@@ -5986,7 +6010,7 @@
         <v>407</v>
       </c>
       <c r="D95" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E95" t="s">
         <v>556</v>
@@ -6012,7 +6036,7 @@
         <v>408</v>
       </c>
       <c r="D96" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="E96" t="s">
         <v>557</v>
@@ -6021,7 +6045,7 @@
         <v>707</v>
       </c>
       <c r="G96" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="K96" t="s">
         <v>763</v>
@@ -6070,7 +6094,7 @@
         <v>410</v>
       </c>
       <c r="D98" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E98" t="s">
         <v>559</v>
@@ -6079,7 +6103,7 @@
         <v>709</v>
       </c>
       <c r="G98" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="I98" t="s">
         <v>763</v>
@@ -6105,7 +6129,7 @@
         <v>411</v>
       </c>
       <c r="D99" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E99" t="s">
         <v>560</v>
@@ -6114,7 +6138,7 @@
         <v>710</v>
       </c>
       <c r="G99" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="I99" t="s">
         <v>763</v>
@@ -6131,10 +6155,10 @@
         <v>262</v>
       </c>
       <c r="C100" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D100" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="E100" t="s">
         <v>561</v>
@@ -6143,7 +6167,7 @@
         <v>711</v>
       </c>
       <c r="G100" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="K100" t="s">
         <v>763</v>
@@ -6163,7 +6187,7 @@
         <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E101" t="s">
         <v>562</v>
@@ -6172,7 +6196,7 @@
         <v>712</v>
       </c>
       <c r="G101" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="K101" t="s">
         <v>763</v>
@@ -6192,7 +6216,7 @@
         <v>413</v>
       </c>
       <c r="D102" t="s">
-        <v>413</v>
+        <v>944</v>
       </c>
       <c r="E102" t="s">
         <v>563</v>
@@ -6201,7 +6225,10 @@
         <v>713</v>
       </c>
       <c r="G102" t="s">
-        <v>880</v>
+        <v>945</v>
+      </c>
+      <c r="I102" t="s">
+        <v>763</v>
       </c>
       <c r="K102" t="s">
         <v>763</v>
@@ -6244,7 +6271,7 @@
         <v>415</v>
       </c>
       <c r="D104" t="s">
-        <v>881</v>
+        <v>948</v>
       </c>
       <c r="E104" t="s">
         <v>565</v>
@@ -6253,12 +6280,18 @@
         <v>715</v>
       </c>
       <c r="G104" t="s">
-        <v>882</v>
+        <v>875</v>
+      </c>
+      <c r="H104" t="s">
+        <v>763</v>
       </c>
       <c r="K104" t="s">
         <v>763</v>
       </c>
       <c r="L104" t="s">
+        <v>763</v>
+      </c>
+      <c r="M104" t="s">
         <v>763</v>
       </c>
     </row>
@@ -6273,7 +6306,7 @@
         <v>416</v>
       </c>
       <c r="D105" t="s">
-        <v>416</v>
+        <v>946</v>
       </c>
       <c r="E105" t="s">
         <v>566</v>
@@ -6282,9 +6315,9 @@
         <v>716</v>
       </c>
       <c r="G105" t="s">
-        <v>716</v>
-      </c>
-      <c r="N105" t="s">
+        <v>947</v>
+      </c>
+      <c r="M105" t="s">
         <v>763</v>
       </c>
     </row>
@@ -6308,7 +6341,7 @@
         <v>717</v>
       </c>
       <c r="G106" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="K106" t="s">
         <v>763</v>
@@ -6328,7 +6361,7 @@
         <v>418</v>
       </c>
       <c r="D107" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="E107" t="s">
         <v>568</v>
@@ -6337,7 +6370,7 @@
         <v>718</v>
       </c>
       <c r="G107" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="I107" t="s">
         <v>763</v>
@@ -6383,7 +6416,7 @@
         <v>420</v>
       </c>
       <c r="D109" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="E109" t="s">
         <v>570</v>
@@ -6392,7 +6425,7 @@
         <v>720</v>
       </c>
       <c r="G109" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="K109" t="s">
         <v>763</v>
@@ -6412,7 +6445,7 @@
         <v>421</v>
       </c>
       <c r="D110" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="E110" t="s">
         <v>571</v>
@@ -6441,7 +6474,7 @@
         <v>422</v>
       </c>
       <c r="D111" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="E111" t="s">
         <v>572</v>
@@ -6450,7 +6483,7 @@
         <v>722</v>
       </c>
       <c r="G111" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="K111" t="s">
         <v>763</v>
@@ -6473,7 +6506,7 @@
         <v>423</v>
       </c>
       <c r="D112" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="E112" t="s">
         <v>573</v>
@@ -6482,7 +6515,7 @@
         <v>723</v>
       </c>
       <c r="G112" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="I112" t="s">
         <v>763</v>
@@ -6508,7 +6541,7 @@
         <v>424</v>
       </c>
       <c r="D113" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="E113" t="s">
         <v>574</v>
@@ -6517,7 +6550,7 @@
         <v>724</v>
       </c>
       <c r="G113" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="K113" t="s">
         <v>763</v>
@@ -6537,7 +6570,7 @@
         <v>425</v>
       </c>
       <c r="D114" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E114" t="s">
         <v>575</v>
@@ -6546,7 +6579,7 @@
         <v>725</v>
       </c>
       <c r="G114" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="K114" t="s">
         <v>763</v>
@@ -6575,7 +6608,7 @@
         <v>726</v>
       </c>
       <c r="G115" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="K115" t="s">
         <v>763</v>
@@ -6595,7 +6628,7 @@
         <v>427</v>
       </c>
       <c r="D116" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="E116" t="s">
         <v>577</v>
@@ -6604,7 +6637,7 @@
         <v>727</v>
       </c>
       <c r="G116" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="H116" t="s">
         <v>763</v>
@@ -6627,7 +6660,7 @@
         <v>428</v>
       </c>
       <c r="D117" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E117" t="s">
         <v>578</v>
@@ -6636,7 +6669,7 @@
         <v>728</v>
       </c>
       <c r="G117" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="I117" t="s">
         <v>763</v>
@@ -6659,7 +6692,7 @@
         <v>429</v>
       </c>
       <c r="D118" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E118" t="s">
         <v>579</v>
@@ -6668,7 +6701,7 @@
         <v>729</v>
       </c>
       <c r="G118" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="J118" t="s">
         <v>763</v>
@@ -6714,7 +6747,7 @@
         <v>431</v>
       </c>
       <c r="D120" t="s">
-        <v>902</v>
+        <v>949</v>
       </c>
       <c r="E120" t="s">
         <v>581</v>
@@ -6723,7 +6756,7 @@
         <v>731</v>
       </c>
       <c r="G120" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="H120" t="s">
         <v>763</v>
@@ -6772,7 +6805,7 @@
         <v>433</v>
       </c>
       <c r="D122" t="s">
-        <v>433</v>
+        <v>950</v>
       </c>
       <c r="E122" t="s">
         <v>583</v>
@@ -6781,12 +6814,12 @@
         <v>733</v>
       </c>
       <c r="G122" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="K122" t="s">
         <v>763</v>
       </c>
-      <c r="N122" t="s">
+      <c r="M122" t="s">
         <v>763</v>
       </c>
     </row>
@@ -6801,7 +6834,7 @@
         <v>434</v>
       </c>
       <c r="D123" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="E123" t="s">
         <v>584</v>
@@ -6810,7 +6843,7 @@
         <v>734</v>
       </c>
       <c r="G123" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="K123" t="s">
         <v>763</v>
@@ -6830,7 +6863,7 @@
         <v>435</v>
       </c>
       <c r="D124" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="E124" t="s">
         <v>585</v>
@@ -6859,7 +6892,7 @@
         <v>436</v>
       </c>
       <c r="D125" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="E125" t="s">
         <v>586</v>
@@ -6868,7 +6901,7 @@
         <v>736</v>
       </c>
       <c r="G125" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="K125" t="s">
         <v>763</v>
@@ -6888,7 +6921,7 @@
         <v>437</v>
       </c>
       <c r="D126" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="E126" t="s">
         <v>587</v>
@@ -6897,7 +6930,7 @@
         <v>737</v>
       </c>
       <c r="G126" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="H126" t="s">
         <v>763</v>
@@ -6917,7 +6950,7 @@
         <v>438</v>
       </c>
       <c r="D127" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="E127" t="s">
         <v>588</v>
@@ -6926,7 +6959,7 @@
         <v>738</v>
       </c>
       <c r="G127" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="I127" t="s">
         <v>763</v>
@@ -6975,7 +7008,7 @@
         <v>440</v>
       </c>
       <c r="D129" t="s">
-        <v>914</v>
+        <v>954</v>
       </c>
       <c r="E129" t="s">
         <v>590</v>
@@ -6984,7 +7017,7 @@
         <v>740</v>
       </c>
       <c r="G129" t="s">
-        <v>915</v>
+        <v>955</v>
       </c>
       <c r="K129" t="s">
         <v>763</v>
@@ -7004,7 +7037,7 @@
         <v>441</v>
       </c>
       <c r="D130" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="E130" t="s">
         <v>591</v>
@@ -7013,7 +7046,7 @@
         <v>741</v>
       </c>
       <c r="G130" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="I130" t="s">
         <v>763</v>
@@ -7036,7 +7069,7 @@
         <v>442</v>
       </c>
       <c r="D131" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="E131" t="s">
         <v>592</v>
@@ -7088,7 +7121,7 @@
         <v>444</v>
       </c>
       <c r="D133" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="E133" t="s">
         <v>594</v>
@@ -7120,7 +7153,7 @@
         <v>445</v>
       </c>
       <c r="D134" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E134" t="s">
         <v>595</v>
@@ -7146,7 +7179,7 @@
         <v>446</v>
       </c>
       <c r="D135" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="E135" t="s">
         <v>596</v>
@@ -7155,7 +7188,7 @@
         <v>746</v>
       </c>
       <c r="G135" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="I135" t="s">
         <v>763</v>
@@ -7181,7 +7214,7 @@
         <v>447</v>
       </c>
       <c r="D136" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="E136" t="s">
         <v>597</v>
@@ -7190,7 +7223,7 @@
         <v>747</v>
       </c>
       <c r="G136" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="K136" t="s">
         <v>763</v>
@@ -7210,7 +7243,7 @@
         <v>448</v>
       </c>
       <c r="D137" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="E137" t="s">
         <v>598</v>
@@ -7219,7 +7252,7 @@
         <v>748</v>
       </c>
       <c r="G137" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="J137" t="s">
         <v>763</v>
@@ -7291,7 +7324,7 @@
         <v>451</v>
       </c>
       <c r="D140" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="E140" t="s">
         <v>601</v>
@@ -7300,7 +7333,7 @@
         <v>751</v>
       </c>
       <c r="G140" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="K140" t="s">
         <v>763</v>
@@ -7320,7 +7353,7 @@
         <v>452</v>
       </c>
       <c r="D141" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="E141" t="s">
         <v>602</v>
@@ -7329,7 +7362,7 @@
         <v>752</v>
       </c>
       <c r="G141" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="H141" t="s">
         <v>763</v>
@@ -7375,7 +7408,7 @@
         <v>454</v>
       </c>
       <c r="D143" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="E143" t="s">
         <v>604</v>
@@ -7384,7 +7417,7 @@
         <v>754</v>
       </c>
       <c r="G143" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="K143" t="s">
         <v>763</v>
@@ -7459,7 +7492,7 @@
         <v>457</v>
       </c>
       <c r="D146" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="E146" t="s">
         <v>607</v>
@@ -7468,7 +7501,7 @@
         <v>757</v>
       </c>
       <c r="G146" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="K146" t="s">
         <v>763</v>
@@ -7488,7 +7521,7 @@
         <v>458</v>
       </c>
       <c r="D147" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="E147" t="s">
         <v>608</v>
@@ -7497,7 +7530,7 @@
         <v>758</v>
       </c>
       <c r="G147" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="K147" t="s">
         <v>763</v>
@@ -7517,7 +7550,7 @@
         <v>459</v>
       </c>
       <c r="D148" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="E148" t="s">
         <v>609</v>
@@ -7526,7 +7559,7 @@
         <v>759</v>
       </c>
       <c r="G148" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="K148" t="s">
         <v>763</v>
@@ -7558,7 +7591,7 @@
         <v>760</v>
       </c>
       <c r="G149" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="K149" t="s">
         <v>763</v>
@@ -7587,7 +7620,7 @@
         <v>761</v>
       </c>
       <c r="G150" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="K150" t="s">
         <v>763</v>
@@ -7607,7 +7640,7 @@
         <v>462</v>
       </c>
       <c r="D151" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="E151" t="s">
         <v>612</v>
@@ -7616,7 +7649,7 @@
         <v>762</v>
       </c>
       <c r="G151" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="K151" t="s">
         <v>763</v>

--- a/Review files/qald9_test_set_review_table.xlsx
+++ b/Review files/qald9_test_set_review_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD9-ES\Review files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javi\Desktop\Work\QALD9ES\Repo\QALD-9-ES\Review files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF7BBA-32EB-4581-87C8-5650F860421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9264EB1C-902C-4921-83D5-90BF92BBA785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="956">
   <si>
     <t>id</t>
   </si>
@@ -2671,9 +2671,6 @@
     <t>¿Cuánto mide el jugador activo más bajo de la NBA?</t>
   </si>
   <si>
-    <t>tamaño,  jugador más bajo,  NBA?</t>
-  </si>
-  <si>
     <t>¿Dónde murió Abrahan Lincoln?</t>
   </si>
   <si>
@@ -2888,6 +2885,9 @@
   </si>
   <si>
     <t>librerías, construidas,  antes de 1400</t>
+  </si>
+  <si>
+    <t>tamaño,  jugador más bajo,  NBA</t>
   </si>
 </sst>
 </file>
@@ -3291,9 +3291,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3303,7 @@
     <col min="3" max="3" width="81.28515625" customWidth="1"/>
     <col min="4" max="4" width="97.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="60" customWidth="1"/>
     <col min="7" max="7" width="76.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3352,622 +3353,661 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>770</v>
       </c>
       <c r="E2" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F2" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="G2" t="s">
-        <v>613</v>
-      </c>
-      <c r="N2" t="s">
+        <v>771</v>
+      </c>
+      <c r="I2" t="s">
+        <v>763</v>
+      </c>
+      <c r="J2" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>774</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="F3" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="G3" t="s">
-        <v>764</v>
+        <v>775</v>
+      </c>
+      <c r="I3" t="s">
+        <v>763</v>
       </c>
       <c r="K3" t="s">
-        <v>763</v>
-      </c>
-      <c r="N3" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="E4" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="F4" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="G4" t="s">
-        <v>615</v>
+        <v>784</v>
+      </c>
+      <c r="I4" t="s">
+        <v>763</v>
       </c>
       <c r="J4" t="s">
+        <v>763</v>
+      </c>
+      <c r="L4" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>792</v>
       </c>
       <c r="E5" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="F5" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="G5" t="s">
-        <v>766</v>
-      </c>
-      <c r="K5" t="s">
-        <v>763</v>
-      </c>
-      <c r="N5" t="s">
+        <v>793</v>
+      </c>
+      <c r="I5" t="s">
+        <v>763</v>
+      </c>
+      <c r="J5" t="s">
+        <v>763</v>
+      </c>
+      <c r="L5" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="D6" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="F6" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="G6" t="s">
-        <v>617</v>
-      </c>
-      <c r="M6" t="s">
+        <v>795</v>
+      </c>
+      <c r="I6" t="s">
+        <v>763</v>
+      </c>
+      <c r="J6" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>796</v>
       </c>
       <c r="E7" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="F7" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="G7" t="s">
-        <v>618</v>
-      </c>
-      <c r="N7" t="s">
+        <v>797</v>
+      </c>
+      <c r="I7" t="s">
+        <v>763</v>
+      </c>
+      <c r="J7" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>803</v>
       </c>
       <c r="E8" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="G8" t="s">
-        <v>619</v>
-      </c>
-      <c r="N8" t="s">
+        <v>804</v>
+      </c>
+      <c r="I8" t="s">
+        <v>763</v>
+      </c>
+      <c r="K8" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="D9" t="s">
-        <v>768</v>
+        <v>821</v>
       </c>
       <c r="E9" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="F9" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="G9" t="s">
-        <v>769</v>
-      </c>
-      <c r="H9" t="s">
-        <v>763</v>
+        <v>822</v>
       </c>
       <c r="I9" t="s">
         <v>763</v>
       </c>
       <c r="K9" t="s">
+        <v>763</v>
+      </c>
+      <c r="M9" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="D10" t="s">
-        <v>770</v>
+        <v>829</v>
       </c>
       <c r="E10" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F10" t="s">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="G10" t="s">
-        <v>771</v>
-      </c>
-      <c r="J10" t="s">
+        <v>830</v>
+      </c>
+      <c r="I10" t="s">
         <v>763</v>
       </c>
       <c r="K10" t="s">
+        <v>763</v>
+      </c>
+      <c r="L10" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>843</v>
       </c>
       <c r="E11" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="F11" t="s">
-        <v>622</v>
+        <v>687</v>
       </c>
       <c r="G11" t="s">
-        <v>772</v>
+        <v>842</v>
+      </c>
+      <c r="I11" t="s">
+        <v>763</v>
       </c>
       <c r="K11" t="s">
         <v>763</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="D12" t="s">
-        <v>773</v>
+        <v>867</v>
       </c>
       <c r="E12" t="s">
-        <v>473</v>
+        <v>559</v>
       </c>
       <c r="F12" t="s">
-        <v>623</v>
+        <v>709</v>
       </c>
       <c r="G12" t="s">
-        <v>927</v>
-      </c>
-      <c r="K12" t="s">
+        <v>868</v>
+      </c>
+      <c r="I12" t="s">
+        <v>763</v>
+      </c>
+      <c r="J12" t="s">
         <v>763</v>
       </c>
       <c r="L12" t="s">
-        <v>763</v>
-      </c>
-      <c r="M12" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>325</v>
+        <v>423</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>883</v>
       </c>
       <c r="E13" t="s">
-        <v>474</v>
+        <v>573</v>
       </c>
       <c r="F13" t="s">
-        <v>624</v>
+        <v>723</v>
       </c>
       <c r="G13" t="s">
-        <v>624</v>
-      </c>
-      <c r="N13" t="s">
+        <v>884</v>
+      </c>
+      <c r="I13" t="s">
+        <v>763</v>
+      </c>
+      <c r="J13" t="s">
+        <v>763</v>
+      </c>
+      <c r="L13" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>326</v>
+        <v>429</v>
       </c>
       <c r="D14" t="s">
-        <v>326</v>
+        <v>892</v>
       </c>
       <c r="E14" t="s">
-        <v>475</v>
+        <v>579</v>
       </c>
       <c r="F14" t="s">
-        <v>625</v>
+        <v>729</v>
       </c>
       <c r="G14" t="s">
-        <v>625</v>
-      </c>
-      <c r="N14" t="s">
+        <v>893</v>
+      </c>
+      <c r="I14" t="s">
+        <v>763</v>
+      </c>
+      <c r="J14" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>438</v>
       </c>
       <c r="D15" t="s">
-        <v>774</v>
+        <v>903</v>
       </c>
       <c r="E15" t="s">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="F15" t="s">
-        <v>626</v>
+        <v>738</v>
       </c>
       <c r="G15" t="s">
-        <v>775</v>
+        <v>904</v>
+      </c>
+      <c r="I15" t="s">
+        <v>763</v>
       </c>
       <c r="J15" t="s">
-        <v>763</v>
-      </c>
-      <c r="K15" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D16" t="s">
-        <v>776</v>
+        <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="F16" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="G16" t="s">
-        <v>627</v>
-      </c>
-      <c r="M16" t="s">
+        <v>764</v>
+      </c>
+      <c r="K16" t="s">
+        <v>763</v>
+      </c>
+      <c r="N16" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D17" t="s">
-        <v>777</v>
+        <v>317</v>
       </c>
       <c r="E17" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F17" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G17" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="K17" t="s">
         <v>763</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D18" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="E18" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F18" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="G18" t="s">
-        <v>780</v>
-      </c>
-      <c r="K18" t="s">
-        <v>763</v>
-      </c>
-      <c r="L18" t="s">
+        <v>769</v>
+      </c>
+      <c r="H18" t="s">
+        <v>763</v>
+      </c>
+      <c r="I18" t="s">
+        <v>763</v>
+      </c>
+      <c r="J18" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>782</v>
+        <v>323</v>
       </c>
       <c r="E19" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F19" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G19" t="s">
-        <v>781</v>
-      </c>
-      <c r="K19" t="s">
-        <v>763</v>
-      </c>
-      <c r="M19" t="s">
+        <v>772</v>
+      </c>
+      <c r="N19" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D20" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="E20" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F20" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G20" t="s">
-        <v>784</v>
-      </c>
-      <c r="I20" t="s">
-        <v>763</v>
-      </c>
-      <c r="J20" t="s">
-        <v>763</v>
+        <v>926</v>
       </c>
       <c r="K20" t="s">
         <v>763</v>
       </c>
       <c r="L20" t="s">
+        <v>763</v>
+      </c>
+      <c r="M20" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D21" t="s">
-        <v>333</v>
+        <v>777</v>
       </c>
       <c r="E21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F21" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G21" t="s">
-        <v>785</v>
-      </c>
-      <c r="N21" t="s">
+        <v>778</v>
+      </c>
+      <c r="J21" t="s">
+        <v>763</v>
+      </c>
+      <c r="M21" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D22" t="s">
-        <v>334</v>
+        <v>779</v>
       </c>
       <c r="E22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F22" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G22" t="s">
-        <v>786</v>
-      </c>
-      <c r="K22" t="s">
+        <v>780</v>
+      </c>
+      <c r="J22" t="s">
         <v>763</v>
       </c>
       <c r="L22" t="s">
-        <v>763</v>
-      </c>
-      <c r="N22" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D23" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F23" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G23" t="s">
-        <v>788</v>
+        <v>781</v>
+      </c>
+      <c r="J23" t="s">
+        <v>763</v>
       </c>
       <c r="M23" t="s">
         <v>763</v>
@@ -3975,141 +4015,150 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D24" t="s">
-        <v>789</v>
+        <v>334</v>
       </c>
       <c r="E24" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F24" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G24" t="s">
-        <v>790</v>
-      </c>
-      <c r="H24" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="K24" t="s">
         <v>763</v>
       </c>
       <c r="L24" t="s">
+        <v>763</v>
+      </c>
+      <c r="N24" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" t="s">
-        <v>337</v>
+        <v>789</v>
       </c>
       <c r="E25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G25" t="s">
-        <v>636</v>
-      </c>
-      <c r="N25" t="s">
+        <v>790</v>
+      </c>
+      <c r="H25" t="s">
+        <v>763</v>
+      </c>
+      <c r="K25" t="s">
+        <v>763</v>
+      </c>
+      <c r="L25" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D26" t="s">
-        <v>338</v>
+        <v>798</v>
       </c>
       <c r="E26" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F26" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="G26" t="s">
-        <v>637</v>
-      </c>
-      <c r="N26" t="s">
+        <v>799</v>
+      </c>
+      <c r="H26" t="s">
+        <v>763</v>
+      </c>
+      <c r="I26" t="s">
+        <v>763</v>
+      </c>
+      <c r="J26" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D27" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="E27" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="F27" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="G27" t="s">
-        <v>638</v>
-      </c>
-      <c r="L27" t="s">
+        <v>801</v>
+      </c>
+      <c r="J27" t="s">
+        <v>763</v>
+      </c>
+      <c r="M27" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D28" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="E28" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F28" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="G28" t="s">
-        <v>793</v>
-      </c>
-      <c r="J28" t="s">
-        <v>763</v>
-      </c>
-      <c r="K28" t="s">
-        <v>763</v>
+        <v>806</v>
       </c>
       <c r="L28" t="s">
         <v>763</v>
@@ -4117,51 +4166,60 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="D29" t="s">
-        <v>937</v>
+        <v>807</v>
       </c>
       <c r="E29" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F29" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="G29" t="s">
-        <v>640</v>
+        <v>808</v>
       </c>
       <c r="H29" t="s">
+        <v>763</v>
+      </c>
+      <c r="J29" t="s">
+        <v>763</v>
+      </c>
+      <c r="L29" t="s">
+        <v>763</v>
+      </c>
+      <c r="M29" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E30" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="F30" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="G30" t="s">
-        <v>641</v>
+        <v>809</v>
       </c>
       <c r="N30" t="s">
         <v>763</v>
@@ -4169,170 +4227,176 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D31" t="s">
-        <v>794</v>
+        <v>937</v>
       </c>
       <c r="E31" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="F31" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="G31" t="s">
-        <v>795</v>
-      </c>
-      <c r="I31" t="s">
-        <v>763</v>
+        <v>938</v>
       </c>
       <c r="J31" t="s">
         <v>763</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>763</v>
+      </c>
+      <c r="M31" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="D32" t="s">
-        <v>344</v>
+        <v>810</v>
       </c>
       <c r="E32" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="F32" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="G32" t="s">
-        <v>643</v>
-      </c>
-      <c r="N32" t="s">
+        <v>811</v>
+      </c>
+      <c r="H32" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D33" t="s">
-        <v>796</v>
+        <v>359</v>
       </c>
       <c r="E33" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="F33" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="G33" t="s">
-        <v>797</v>
-      </c>
-      <c r="I33" t="s">
-        <v>763</v>
-      </c>
-      <c r="J33" t="s">
-        <v>763</v>
+        <v>812</v>
       </c>
       <c r="K33" t="s">
+        <v>763</v>
+      </c>
+      <c r="L33" t="s">
+        <v>763</v>
+      </c>
+      <c r="N33" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D34" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="E34" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="F34" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="G34" t="s">
-        <v>799</v>
-      </c>
-      <c r="H34" t="s">
-        <v>763</v>
+        <v>815</v>
       </c>
       <c r="K34" t="s">
+        <v>763</v>
+      </c>
+      <c r="L34" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D35" t="s">
-        <v>347</v>
+        <v>817</v>
       </c>
       <c r="E35" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="F35" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="G35" t="s">
-        <v>646</v>
-      </c>
-      <c r="N35" t="s">
+        <v>818</v>
+      </c>
+      <c r="J35" t="s">
+        <v>763</v>
+      </c>
+      <c r="M35" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="D36" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E36" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="F36" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="G36" t="s">
-        <v>647</v>
+        <v>819</v>
+      </c>
+      <c r="K36" t="s">
+        <v>763</v>
       </c>
       <c r="N36" t="s">
         <v>763</v>
@@ -4340,25 +4404,25 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="D37" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
       <c r="E37" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="F37" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="G37" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="K37" t="s">
         <v>763</v>
@@ -4369,82 +4433,82 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="D38" t="s">
-        <v>802</v>
+        <v>370</v>
       </c>
       <c r="E38" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="F38" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="G38" t="s">
-        <v>649</v>
-      </c>
-      <c r="M38" t="s">
+        <v>825</v>
+      </c>
+      <c r="N38" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="E39" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="F39" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="G39" t="s">
-        <v>804</v>
-      </c>
-      <c r="J39" t="s">
-        <v>763</v>
+        <v>827</v>
       </c>
       <c r="K39" t="s">
+        <v>763</v>
+      </c>
+      <c r="L39" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D40" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
       <c r="E40" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="F40" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
       <c r="G40" t="s">
-        <v>806</v>
-      </c>
-      <c r="K40" t="s">
+        <v>833</v>
+      </c>
+      <c r="J40" t="s">
         <v>763</v>
       </c>
       <c r="L40" t="s">
@@ -4453,91 +4517,85 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="D41" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
       <c r="E41" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="F41" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="G41" t="s">
-        <v>808</v>
-      </c>
-      <c r="H41" t="s">
-        <v>763</v>
+        <v>835</v>
       </c>
       <c r="K41" t="s">
         <v>763</v>
       </c>
       <c r="L41" t="s">
-        <v>763</v>
-      </c>
-      <c r="M41" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="C42" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="E42" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="F42" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="G42" t="s">
-        <v>809</v>
+        <v>841</v>
       </c>
       <c r="K42" t="s">
-        <v>763</v>
-      </c>
-      <c r="N42" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="D43" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E43" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="F43" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="G43" t="s">
-        <v>939</v>
-      </c>
-      <c r="K43" t="s">
+        <v>846</v>
+      </c>
+      <c r="H43" t="s">
+        <v>763</v>
+      </c>
+      <c r="J43" t="s">
         <v>763</v>
       </c>
       <c r="L43" t="s">
@@ -4549,222 +4607,243 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="D44" t="s">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="E44" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="F44" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
       <c r="G44" t="s">
-        <v>811</v>
-      </c>
-      <c r="H44" t="s">
-        <v>763</v>
+        <v>848</v>
       </c>
       <c r="K44" t="s">
+        <v>763</v>
+      </c>
+      <c r="M44" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="D45" t="s">
-        <v>357</v>
+        <v>849</v>
       </c>
       <c r="E45" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="F45" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="G45" t="s">
-        <v>656</v>
-      </c>
-      <c r="N45" t="s">
+        <v>850</v>
+      </c>
+      <c r="J45" t="s">
+        <v>763</v>
+      </c>
+      <c r="M45" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="D46" t="s">
-        <v>358</v>
+        <v>851</v>
       </c>
       <c r="E46" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="F46" t="s">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="G46" t="s">
-        <v>657</v>
-      </c>
-      <c r="N46" t="s">
+        <v>852</v>
+      </c>
+      <c r="H46" t="s">
+        <v>763</v>
+      </c>
+      <c r="I46" t="s">
+        <v>763</v>
+      </c>
+      <c r="J46" t="s">
+        <v>763</v>
+      </c>
+      <c r="M46" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="D47" t="s">
-        <v>359</v>
+        <v>853</v>
       </c>
       <c r="E47" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="F47" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
       <c r="G47" t="s">
-        <v>812</v>
-      </c>
-      <c r="K47" t="s">
+        <v>854</v>
+      </c>
+      <c r="J47" t="s">
         <v>763</v>
       </c>
       <c r="L47" t="s">
-        <v>763</v>
-      </c>
-      <c r="N47" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="D48" t="s">
-        <v>360</v>
+        <v>855</v>
       </c>
       <c r="E48" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="F48" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="G48" t="s">
-        <v>813</v>
-      </c>
-      <c r="N48" t="s">
+        <v>856</v>
+      </c>
+      <c r="H48" t="s">
+        <v>763</v>
+      </c>
+      <c r="I48" t="s">
+        <v>763</v>
+      </c>
+      <c r="J48" t="s">
+        <v>763</v>
+      </c>
+      <c r="M48" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="D49" t="s">
-        <v>814</v>
+        <v>942</v>
       </c>
       <c r="E49" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="F49" t="s">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="G49" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="K49" t="s">
         <v>763</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="D50" t="s">
-        <v>816</v>
+        <v>398</v>
       </c>
       <c r="E50" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="F50" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="G50" t="s">
-        <v>661</v>
-      </c>
-      <c r="H50" t="s">
-        <v>763</v>
-      </c>
-      <c r="L50" t="s">
+        <v>858</v>
+      </c>
+      <c r="K50" t="s">
+        <v>763</v>
+      </c>
+      <c r="N50" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C51" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="D51" t="s">
-        <v>817</v>
+        <v>399</v>
       </c>
       <c r="E51" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="F51" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="G51" t="s">
-        <v>818</v>
+        <v>859</v>
+      </c>
+      <c r="I51" t="s">
+        <v>763</v>
       </c>
       <c r="K51" t="s">
         <v>763</v>
@@ -4775,111 +4854,123 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="C52" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D52" t="s">
-        <v>364</v>
+        <v>861</v>
       </c>
       <c r="E52" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="F52" t="s">
-        <v>663</v>
+        <v>701</v>
       </c>
       <c r="G52" t="s">
-        <v>819</v>
+        <v>862</v>
+      </c>
+      <c r="I52" t="s">
+        <v>763</v>
       </c>
       <c r="K52" t="s">
         <v>763</v>
       </c>
-      <c r="N52" t="s">
+      <c r="M52" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="D53" t="s">
-        <v>940</v>
+        <v>404</v>
       </c>
       <c r="E53" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="F53" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="G53" t="s">
-        <v>664</v>
-      </c>
-      <c r="M53" t="s">
+        <v>863</v>
+      </c>
+      <c r="K53" t="s">
+        <v>763</v>
+      </c>
+      <c r="N53" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="C54" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="D54" t="s">
-        <v>820</v>
+        <v>865</v>
       </c>
       <c r="E54" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
       <c r="F54" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="G54" t="s">
-        <v>665</v>
-      </c>
-      <c r="M54" t="s">
+        <v>927</v>
+      </c>
+      <c r="H54" t="s">
+        <v>763</v>
+      </c>
+      <c r="J54" t="s">
+        <v>763</v>
+      </c>
+      <c r="L54" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C55" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="D55" t="s">
-        <v>821</v>
+        <v>928</v>
       </c>
       <c r="E55" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="F55" t="s">
-        <v>666</v>
+        <v>707</v>
       </c>
       <c r="G55" t="s">
-        <v>822</v>
+        <v>929</v>
       </c>
       <c r="J55" t="s">
         <v>763</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>763</v>
       </c>
       <c r="M55" t="s">
@@ -4888,277 +4979,295 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="C56" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="D56" t="s">
-        <v>823</v>
+        <v>869</v>
       </c>
       <c r="E56" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="F56" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="G56" t="s">
-        <v>824</v>
-      </c>
-      <c r="K56" t="s">
-        <v>763</v>
-      </c>
-      <c r="M56" t="s">
+        <v>870</v>
+      </c>
+      <c r="I56" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
-        <v>369</v>
+        <v>871</v>
       </c>
       <c r="D57" t="s">
-        <v>369</v>
+        <v>930</v>
       </c>
       <c r="E57" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="F57" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="G57" t="s">
-        <v>668</v>
-      </c>
-      <c r="N57" t="s">
+        <v>872</v>
+      </c>
+      <c r="K57" t="s">
+        <v>763</v>
+      </c>
+      <c r="M57" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="C58" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="D58" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
       <c r="E58" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="F58" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="G58" t="s">
-        <v>825</v>
-      </c>
-      <c r="K58" t="s">
-        <v>763</v>
-      </c>
-      <c r="N58" t="s">
+        <v>874</v>
+      </c>
+      <c r="J58" t="s">
+        <v>763</v>
+      </c>
+      <c r="M58" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="C59" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="D59" t="s">
-        <v>371</v>
+        <v>943</v>
       </c>
       <c r="E59" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="F59" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="G59" t="s">
-        <v>670</v>
-      </c>
-      <c r="N59" t="s">
+        <v>944</v>
+      </c>
+      <c r="I59" t="s">
+        <v>763</v>
+      </c>
+      <c r="J59" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="C60" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="D60" t="s">
-        <v>372</v>
+        <v>947</v>
       </c>
       <c r="E60" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="F60" t="s">
-        <v>671</v>
+        <v>715</v>
       </c>
       <c r="G60" t="s">
-        <v>671</v>
-      </c>
-      <c r="N60" t="s">
+        <v>875</v>
+      </c>
+      <c r="H60" t="s">
+        <v>763</v>
+      </c>
+      <c r="K60" t="s">
+        <v>763</v>
+      </c>
+      <c r="L60" t="s">
+        <v>763</v>
+      </c>
+      <c r="M60" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="D61" t="s">
-        <v>826</v>
+        <v>417</v>
       </c>
       <c r="E61" t="s">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="F61" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="G61" t="s">
-        <v>827</v>
+        <v>876</v>
       </c>
       <c r="K61" t="s">
         <v>763</v>
       </c>
-      <c r="L61" t="s">
+      <c r="N61" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="C62" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="D62" t="s">
-        <v>941</v>
+        <v>877</v>
       </c>
       <c r="E62" t="s">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="F62" t="s">
-        <v>673</v>
+        <v>718</v>
       </c>
       <c r="G62" t="s">
-        <v>828</v>
-      </c>
-      <c r="H62" t="s">
-        <v>763</v>
-      </c>
-      <c r="M62" t="s">
+        <v>878</v>
+      </c>
+      <c r="I62" t="s">
+        <v>763</v>
+      </c>
+      <c r="J62" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="C63" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="D63" t="s">
-        <v>375</v>
+        <v>879</v>
       </c>
       <c r="E63" t="s">
-        <v>524</v>
+        <v>570</v>
       </c>
       <c r="F63" t="s">
-        <v>674</v>
+        <v>720</v>
       </c>
       <c r="G63" t="s">
-        <v>674</v>
-      </c>
-      <c r="N63" t="s">
+        <v>880</v>
+      </c>
+      <c r="J63" t="s">
+        <v>763</v>
+      </c>
+      <c r="M63" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="C64" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="D64" t="s">
-        <v>376</v>
+        <v>882</v>
       </c>
       <c r="E64" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="F64" t="s">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="G64" t="s">
-        <v>675</v>
-      </c>
-      <c r="N64" t="s">
+        <v>955</v>
+      </c>
+      <c r="J64" t="s">
+        <v>763</v>
+      </c>
+      <c r="K64" t="s">
+        <v>763</v>
+      </c>
+      <c r="L64" t="s">
+        <v>763</v>
+      </c>
+      <c r="M64" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="C65" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="D65" t="s">
-        <v>829</v>
+        <v>931</v>
       </c>
       <c r="E65" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="F65" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="G65" t="s">
-        <v>830</v>
-      </c>
-      <c r="J65" t="s">
-        <v>763</v>
-      </c>
-      <c r="K65" t="s">
-        <v>763</v>
+        <v>885</v>
       </c>
       <c r="L65" t="s">
         <v>763</v>
@@ -5166,105 +5275,117 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="D66" t="s">
-        <v>378</v>
+        <v>886</v>
       </c>
       <c r="E66" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="F66" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="G66" t="s">
-        <v>677</v>
-      </c>
-      <c r="N66" t="s">
+        <v>887</v>
+      </c>
+      <c r="L66" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="C67" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="D67" t="s">
-        <v>831</v>
+        <v>426</v>
       </c>
       <c r="E67" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="F67" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="G67" t="s">
-        <v>678</v>
-      </c>
-      <c r="M67" t="s">
+        <v>932</v>
+      </c>
+      <c r="K67" t="s">
+        <v>763</v>
+      </c>
+      <c r="N67" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="C68" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="D68" t="s">
-        <v>380</v>
+        <v>888</v>
       </c>
       <c r="E68" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="F68" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
       <c r="G68" t="s">
-        <v>679</v>
-      </c>
-      <c r="N68" t="s">
+        <v>889</v>
+      </c>
+      <c r="H68" t="s">
+        <v>763</v>
+      </c>
+      <c r="I68" t="s">
+        <v>763</v>
+      </c>
+      <c r="J68" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="D69" t="s">
-        <v>832</v>
+        <v>890</v>
       </c>
       <c r="E69" t="s">
-        <v>530</v>
+        <v>578</v>
       </c>
       <c r="F69" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="G69" t="s">
-        <v>833</v>
-      </c>
-      <c r="K69" t="s">
+        <v>891</v>
+      </c>
+      <c r="I69" t="s">
+        <v>763</v>
+      </c>
+      <c r="J69" t="s">
         <v>763</v>
       </c>
       <c r="L69" t="s">
@@ -5273,187 +5394,193 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C70" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="D70" t="s">
-        <v>834</v>
+        <v>948</v>
       </c>
       <c r="E70" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="F70" t="s">
-        <v>681</v>
+        <v>731</v>
       </c>
       <c r="G70" t="s">
-        <v>835</v>
+        <v>894</v>
+      </c>
+      <c r="H70" t="s">
+        <v>763</v>
       </c>
       <c r="K70" t="s">
         <v>763</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C71" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="D71" t="s">
-        <v>383</v>
+        <v>949</v>
       </c>
       <c r="E71" t="s">
-        <v>532</v>
+        <v>583</v>
       </c>
       <c r="F71" t="s">
-        <v>682</v>
+        <v>733</v>
       </c>
       <c r="G71" t="s">
-        <v>836</v>
-      </c>
-      <c r="L71" t="s">
-        <v>763</v>
-      </c>
-      <c r="N71" t="s">
+        <v>895</v>
+      </c>
+      <c r="M71" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="C72" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="D72" t="s">
-        <v>837</v>
+        <v>896</v>
       </c>
       <c r="E72" t="s">
-        <v>533</v>
+        <v>584</v>
       </c>
       <c r="F72" t="s">
-        <v>683</v>
+        <v>734</v>
       </c>
       <c r="G72" t="s">
-        <v>683</v>
-      </c>
-      <c r="M72" t="s">
+        <v>897</v>
+      </c>
+      <c r="L72" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="D73" t="s">
-        <v>838</v>
+        <v>899</v>
       </c>
       <c r="E73" t="s">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="F73" t="s">
-        <v>684</v>
+        <v>736</v>
       </c>
       <c r="G73" t="s">
-        <v>839</v>
-      </c>
-      <c r="L73" t="s">
+        <v>900</v>
+      </c>
+      <c r="K73" t="s">
+        <v>763</v>
+      </c>
+      <c r="M73" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C74" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="D74" t="s">
-        <v>840</v>
+        <v>901</v>
       </c>
       <c r="E74" t="s">
-        <v>535</v>
+        <v>587</v>
       </c>
       <c r="F74" t="s">
-        <v>685</v>
+        <v>737</v>
       </c>
       <c r="G74" t="s">
-        <v>685</v>
-      </c>
-      <c r="L74" t="s">
+        <v>902</v>
+      </c>
+      <c r="H74" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="C75" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="D75" t="s">
-        <v>387</v>
+        <v>953</v>
       </c>
       <c r="E75" t="s">
-        <v>536</v>
+        <v>590</v>
       </c>
       <c r="F75" t="s">
-        <v>686</v>
+        <v>740</v>
       </c>
       <c r="G75" t="s">
-        <v>841</v>
-      </c>
-      <c r="K75" t="s">
+        <v>954</v>
+      </c>
+      <c r="J75" t="s">
+        <v>763</v>
+      </c>
+      <c r="M75" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="C76" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="D76" t="s">
-        <v>843</v>
+        <v>905</v>
       </c>
       <c r="E76" t="s">
-        <v>537</v>
+        <v>591</v>
       </c>
       <c r="F76" t="s">
-        <v>687</v>
+        <v>741</v>
       </c>
       <c r="G76" t="s">
-        <v>842</v>
+        <v>906</v>
       </c>
       <c r="I76" t="s">
         <v>763</v>
@@ -5470,152 +5597,149 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="C77" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="D77" t="s">
-        <v>844</v>
+        <v>910</v>
       </c>
       <c r="E77" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="F77" t="s">
-        <v>688</v>
+        <v>746</v>
       </c>
       <c r="G77" t="s">
-        <v>845</v>
+        <v>911</v>
+      </c>
+      <c r="I77" t="s">
+        <v>763</v>
+      </c>
+      <c r="J77" t="s">
+        <v>763</v>
       </c>
       <c r="L77" t="s">
+        <v>763</v>
+      </c>
+      <c r="M77" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="C78" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="D78" t="s">
-        <v>942</v>
+        <v>912</v>
       </c>
       <c r="E78" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="F78" t="s">
-        <v>689</v>
+        <v>747</v>
       </c>
       <c r="G78" t="s">
-        <v>846</v>
-      </c>
-      <c r="H78" t="s">
-        <v>763</v>
-      </c>
-      <c r="K78" t="s">
+        <v>913</v>
+      </c>
+      <c r="J78" t="s">
         <v>763</v>
       </c>
       <c r="L78" t="s">
-        <v>763</v>
-      </c>
-      <c r="M78" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="C79" t="s">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="D79" t="s">
-        <v>847</v>
+        <v>916</v>
       </c>
       <c r="E79" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="F79" t="s">
-        <v>690</v>
+        <v>751</v>
       </c>
       <c r="G79" t="s">
-        <v>848</v>
-      </c>
-      <c r="K79" t="s">
-        <v>763</v>
-      </c>
-      <c r="M79" t="s">
+        <v>917</v>
+      </c>
+      <c r="J79" t="s">
+        <v>763</v>
+      </c>
+      <c r="L79" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="C80" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="D80" t="s">
-        <v>849</v>
+        <v>918</v>
       </c>
       <c r="E80" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="F80" t="s">
-        <v>691</v>
+        <v>752</v>
       </c>
       <c r="G80" t="s">
-        <v>850</v>
-      </c>
-      <c r="K80" t="s">
-        <v>763</v>
-      </c>
-      <c r="M80" t="s">
+        <v>919</v>
+      </c>
+      <c r="H80" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="C81" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="D81" t="s">
-        <v>851</v>
+        <v>950</v>
       </c>
       <c r="E81" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="F81" t="s">
-        <v>692</v>
+        <v>754</v>
       </c>
       <c r="G81" t="s">
-        <v>852</v>
-      </c>
-      <c r="H81" t="s">
-        <v>763</v>
-      </c>
-      <c r="I81" t="s">
-        <v>763</v>
-      </c>
-      <c r="K81" t="s">
+        <v>920</v>
+      </c>
+      <c r="J81" t="s">
+        <v>763</v>
+      </c>
+      <c r="L81" t="s">
         <v>763</v>
       </c>
       <c r="M81" t="s">
@@ -5624,25 +5748,25 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="C82" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="D82" t="s">
-        <v>853</v>
+        <v>921</v>
       </c>
       <c r="E82" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="F82" t="s">
-        <v>693</v>
+        <v>757</v>
       </c>
       <c r="G82" t="s">
-        <v>854</v>
+        <v>922</v>
       </c>
       <c r="K82" t="s">
         <v>763</v>
@@ -5653,31 +5777,25 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s">
-        <v>395</v>
+        <v>458</v>
       </c>
       <c r="D83" t="s">
-        <v>855</v>
+        <v>934</v>
       </c>
       <c r="E83" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="F83" t="s">
-        <v>694</v>
+        <v>758</v>
       </c>
       <c r="G83" t="s">
-        <v>856</v>
-      </c>
-      <c r="H83" t="s">
-        <v>763</v>
-      </c>
-      <c r="I83" t="s">
-        <v>763</v>
+        <v>935</v>
       </c>
       <c r="K83" t="s">
         <v>763</v>
@@ -5688,27 +5806,30 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="C84" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
       <c r="D84" t="s">
-        <v>943</v>
+        <v>923</v>
       </c>
       <c r="E84" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="F84" t="s">
-        <v>695</v>
+        <v>759</v>
       </c>
       <c r="G84" t="s">
-        <v>857</v>
-      </c>
-      <c r="K84" t="s">
+        <v>924</v>
+      </c>
+      <c r="J84" t="s">
+        <v>763</v>
+      </c>
+      <c r="L84" t="s">
         <v>763</v>
       </c>
       <c r="M84" t="s">
@@ -5717,51 +5838,54 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="D85" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="E85" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="F85" t="s">
-        <v>696</v>
+        <v>760</v>
       </c>
       <c r="G85" t="s">
-        <v>696</v>
-      </c>
-      <c r="M85" t="s">
+        <v>925</v>
+      </c>
+      <c r="K85" t="s">
+        <v>763</v>
+      </c>
+      <c r="N85" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="D86" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="E86" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="F86" t="s">
-        <v>697</v>
+        <v>761</v>
       </c>
       <c r="G86" t="s">
-        <v>858</v>
+        <v>933</v>
       </c>
       <c r="K86" t="s">
         <v>763</v>
@@ -5772,30 +5896,27 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="C87" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="D87" t="s">
-        <v>399</v>
+        <v>951</v>
       </c>
       <c r="E87" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="F87" t="s">
-        <v>698</v>
+        <v>762</v>
       </c>
       <c r="G87" t="s">
-        <v>859</v>
-      </c>
-      <c r="I87" t="s">
-        <v>763</v>
-      </c>
-      <c r="K87" t="s">
+        <v>952</v>
+      </c>
+      <c r="J87" t="s">
         <v>763</v>
       </c>
       <c r="M87" t="s">
@@ -5804,51 +5925,54 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="D88" t="s">
-        <v>400</v>
+        <v>765</v>
       </c>
       <c r="E88" t="s">
-        <v>549</v>
+        <v>465</v>
       </c>
       <c r="F88" t="s">
-        <v>699</v>
+        <v>615</v>
       </c>
       <c r="G88" t="s">
-        <v>699</v>
-      </c>
-      <c r="N88" t="s">
+        <v>615</v>
+      </c>
+      <c r="I88" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="C89" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="D89" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="E89" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="F89" t="s">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="G89" t="s">
-        <v>700</v>
+        <v>915</v>
+      </c>
+      <c r="I89" t="s">
+        <v>763</v>
       </c>
       <c r="M89" t="s">
         <v>763</v>
@@ -5856,86 +5980,77 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="D90" t="s">
-        <v>861</v>
+        <v>314</v>
       </c>
       <c r="E90" t="s">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="F90" t="s">
-        <v>701</v>
+        <v>613</v>
       </c>
       <c r="G90" t="s">
-        <v>862</v>
-      </c>
-      <c r="I90" t="s">
-        <v>763</v>
-      </c>
-      <c r="K90" t="s">
-        <v>763</v>
-      </c>
-      <c r="M90" t="s">
+        <v>613</v>
+      </c>
+      <c r="N90" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="D91" t="s">
-        <v>403</v>
+        <v>767</v>
       </c>
       <c r="E91" t="s">
-        <v>552</v>
+        <v>467</v>
       </c>
       <c r="F91" t="s">
-        <v>702</v>
+        <v>617</v>
       </c>
       <c r="G91" t="s">
-        <v>702</v>
-      </c>
-      <c r="N91" t="s">
+        <v>617</v>
+      </c>
+      <c r="M91" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="C92" t="s">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="D92" t="s">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="E92" t="s">
-        <v>553</v>
+        <v>468</v>
       </c>
       <c r="F92" t="s">
-        <v>703</v>
+        <v>618</v>
       </c>
       <c r="G92" t="s">
-        <v>863</v>
-      </c>
-      <c r="K92" t="s">
-        <v>763</v>
+        <v>618</v>
       </c>
       <c r="N92" t="s">
         <v>763</v>
@@ -5943,115 +6058,103 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="D93" t="s">
-        <v>864</v>
+        <v>320</v>
       </c>
       <c r="E93" t="s">
-        <v>554</v>
+        <v>469</v>
       </c>
       <c r="F93" t="s">
-        <v>704</v>
+        <v>619</v>
       </c>
       <c r="G93" t="s">
-        <v>704</v>
-      </c>
-      <c r="M93" t="s">
+        <v>619</v>
+      </c>
+      <c r="N93" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="D94" t="s">
-        <v>865</v>
+        <v>325</v>
       </c>
       <c r="E94" t="s">
-        <v>555</v>
+        <v>474</v>
       </c>
       <c r="F94" t="s">
-        <v>705</v>
+        <v>624</v>
       </c>
       <c r="G94" t="s">
-        <v>928</v>
-      </c>
-      <c r="H94" t="s">
-        <v>763</v>
-      </c>
-      <c r="K94" t="s">
-        <v>763</v>
-      </c>
-      <c r="L94" t="s">
+        <v>624</v>
+      </c>
+      <c r="N94" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="D95" t="s">
-        <v>866</v>
+        <v>326</v>
       </c>
       <c r="E95" t="s">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="F95" t="s">
-        <v>706</v>
+        <v>625</v>
       </c>
       <c r="G95" t="s">
-        <v>706</v>
-      </c>
-      <c r="L95" t="s">
+        <v>625</v>
+      </c>
+      <c r="N95" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="D96" t="s">
-        <v>929</v>
+        <v>776</v>
       </c>
       <c r="E96" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="F96" t="s">
-        <v>707</v>
+        <v>627</v>
       </c>
       <c r="G96" t="s">
-        <v>930</v>
-      </c>
-      <c r="K96" t="s">
-        <v>763</v>
-      </c>
-      <c r="L96" t="s">
-        <v>763</v>
+        <v>627</v>
       </c>
       <c r="M96" t="s">
         <v>763</v>
@@ -6059,25 +6162,25 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="D97" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="E97" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
       <c r="F97" t="s">
-        <v>708</v>
+        <v>632</v>
       </c>
       <c r="G97" t="s">
-        <v>708</v>
+        <v>785</v>
       </c>
       <c r="N97" t="s">
         <v>763</v>
@@ -6085,176 +6188,155 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="D98" t="s">
-        <v>867</v>
+        <v>787</v>
       </c>
       <c r="E98" t="s">
-        <v>559</v>
+        <v>484</v>
       </c>
       <c r="F98" t="s">
-        <v>709</v>
+        <v>634</v>
       </c>
       <c r="G98" t="s">
-        <v>868</v>
-      </c>
-      <c r="I98" t="s">
-        <v>763</v>
-      </c>
-      <c r="J98" t="s">
-        <v>763</v>
-      </c>
-      <c r="K98" t="s">
-        <v>763</v>
-      </c>
-      <c r="L98" t="s">
+        <v>788</v>
+      </c>
+      <c r="M98" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>411</v>
+        <v>337</v>
       </c>
       <c r="D99" t="s">
-        <v>869</v>
+        <v>337</v>
       </c>
       <c r="E99" t="s">
-        <v>560</v>
+        <v>486</v>
       </c>
       <c r="F99" t="s">
-        <v>710</v>
+        <v>636</v>
       </c>
       <c r="G99" t="s">
-        <v>870</v>
-      </c>
-      <c r="I99" t="s">
-        <v>763</v>
-      </c>
-      <c r="K99" t="s">
+        <v>636</v>
+      </c>
+      <c r="N99" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="C100" t="s">
-        <v>871</v>
+        <v>338</v>
       </c>
       <c r="D100" t="s">
-        <v>931</v>
+        <v>338</v>
       </c>
       <c r="E100" t="s">
-        <v>561</v>
+        <v>487</v>
       </c>
       <c r="F100" t="s">
-        <v>711</v>
+        <v>637</v>
       </c>
       <c r="G100" t="s">
-        <v>872</v>
-      </c>
-      <c r="K100" t="s">
-        <v>763</v>
-      </c>
-      <c r="M100" t="s">
+        <v>637</v>
+      </c>
+      <c r="N100" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="C101" t="s">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="D101" t="s">
-        <v>873</v>
+        <v>791</v>
       </c>
       <c r="E101" t="s">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="F101" t="s">
-        <v>712</v>
+        <v>638</v>
       </c>
       <c r="G101" t="s">
-        <v>874</v>
-      </c>
-      <c r="K101" t="s">
-        <v>763</v>
-      </c>
-      <c r="M101" t="s">
+        <v>638</v>
+      </c>
+      <c r="L101" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="C102" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="D102" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="E102" t="s">
-        <v>563</v>
+        <v>490</v>
       </c>
       <c r="F102" t="s">
-        <v>713</v>
+        <v>640</v>
       </c>
       <c r="G102" t="s">
-        <v>945</v>
-      </c>
-      <c r="I102" t="s">
-        <v>763</v>
-      </c>
-      <c r="K102" t="s">
+        <v>640</v>
+      </c>
+      <c r="H102" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="D103" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="E103" t="s">
-        <v>564</v>
+        <v>491</v>
       </c>
       <c r="F103" t="s">
-        <v>714</v>
+        <v>641</v>
       </c>
       <c r="G103" t="s">
-        <v>714</v>
+        <v>641</v>
       </c>
       <c r="N103" t="s">
         <v>763</v>
@@ -6262,89 +6344,77 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="C104" t="s">
-        <v>415</v>
+        <v>344</v>
       </c>
       <c r="D104" t="s">
-        <v>948</v>
+        <v>344</v>
       </c>
       <c r="E104" t="s">
-        <v>565</v>
+        <v>493</v>
       </c>
       <c r="F104" t="s">
-        <v>715</v>
+        <v>643</v>
       </c>
       <c r="G104" t="s">
-        <v>875</v>
-      </c>
-      <c r="H104" t="s">
-        <v>763</v>
-      </c>
-      <c r="K104" t="s">
-        <v>763</v>
-      </c>
-      <c r="L104" t="s">
-        <v>763</v>
-      </c>
-      <c r="M104" t="s">
+        <v>643</v>
+      </c>
+      <c r="N104" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="C105" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="D105" t="s">
-        <v>946</v>
+        <v>347</v>
       </c>
       <c r="E105" t="s">
-        <v>566</v>
+        <v>496</v>
       </c>
       <c r="F105" t="s">
-        <v>716</v>
+        <v>646</v>
       </c>
       <c r="G105" t="s">
-        <v>947</v>
-      </c>
-      <c r="M105" t="s">
+        <v>646</v>
+      </c>
+      <c r="N105" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="D106" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="E106" t="s">
-        <v>567</v>
+        <v>497</v>
       </c>
       <c r="F106" t="s">
-        <v>717</v>
+        <v>647</v>
       </c>
       <c r="G106" t="s">
-        <v>876</v>
-      </c>
-      <c r="K106" t="s">
-        <v>763</v>
+        <v>647</v>
       </c>
       <c r="N106" t="s">
         <v>763</v>
@@ -6352,54 +6422,51 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="C107" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="D107" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
       <c r="E107" t="s">
-        <v>568</v>
+        <v>499</v>
       </c>
       <c r="F107" t="s">
-        <v>718</v>
+        <v>649</v>
       </c>
       <c r="G107" t="s">
-        <v>878</v>
-      </c>
-      <c r="I107" t="s">
-        <v>763</v>
-      </c>
-      <c r="K107" t="s">
+        <v>649</v>
+      </c>
+      <c r="M107" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="C108" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="D108" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="E108" t="s">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="F108" t="s">
-        <v>719</v>
+        <v>656</v>
       </c>
       <c r="G108" t="s">
-        <v>719</v>
+        <v>656</v>
       </c>
       <c r="N108" t="s">
         <v>763</v>
@@ -6407,211 +6474,184 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="C109" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="D109" t="s">
-        <v>879</v>
+        <v>358</v>
       </c>
       <c r="E109" t="s">
-        <v>570</v>
+        <v>507</v>
       </c>
       <c r="F109" t="s">
-        <v>720</v>
+        <v>657</v>
       </c>
       <c r="G109" t="s">
-        <v>880</v>
-      </c>
-      <c r="K109" t="s">
-        <v>763</v>
-      </c>
-      <c r="M109" t="s">
+        <v>657</v>
+      </c>
+      <c r="N109" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="C110" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="D110" t="s">
-        <v>881</v>
+        <v>360</v>
       </c>
       <c r="E110" t="s">
-        <v>571</v>
+        <v>509</v>
       </c>
       <c r="F110" t="s">
-        <v>721</v>
+        <v>659</v>
       </c>
       <c r="G110" t="s">
-        <v>721</v>
-      </c>
-      <c r="H110" t="s">
-        <v>763</v>
-      </c>
-      <c r="M110" t="s">
+        <v>813</v>
+      </c>
+      <c r="N110" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="D111" t="s">
-        <v>882</v>
+        <v>816</v>
       </c>
       <c r="E111" t="s">
-        <v>572</v>
+        <v>511</v>
       </c>
       <c r="F111" t="s">
-        <v>722</v>
+        <v>661</v>
       </c>
       <c r="G111" t="s">
-        <v>883</v>
-      </c>
-      <c r="K111" t="s">
+        <v>661</v>
+      </c>
+      <c r="H111" t="s">
         <v>763</v>
       </c>
       <c r="L111" t="s">
-        <v>763</v>
-      </c>
-      <c r="M111" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="C112" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="D112" t="s">
-        <v>884</v>
+        <v>939</v>
       </c>
       <c r="E112" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
       <c r="F112" t="s">
-        <v>723</v>
+        <v>664</v>
       </c>
       <c r="G112" t="s">
-        <v>885</v>
-      </c>
-      <c r="I112" t="s">
-        <v>763</v>
-      </c>
-      <c r="J112" t="s">
-        <v>763</v>
-      </c>
-      <c r="K112" t="s">
-        <v>763</v>
-      </c>
-      <c r="L112" t="s">
+        <v>664</v>
+      </c>
+      <c r="M112" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="D113" t="s">
-        <v>932</v>
+        <v>820</v>
       </c>
       <c r="E113" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="F113" t="s">
-        <v>724</v>
+        <v>665</v>
       </c>
       <c r="G113" t="s">
-        <v>886</v>
-      </c>
-      <c r="K113" t="s">
-        <v>763</v>
-      </c>
-      <c r="L113" t="s">
+        <v>665</v>
+      </c>
+      <c r="M113" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="C114" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="D114" t="s">
-        <v>887</v>
+        <v>369</v>
       </c>
       <c r="E114" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F114" t="s">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="G114" t="s">
-        <v>888</v>
-      </c>
-      <c r="K114" t="s">
-        <v>763</v>
-      </c>
-      <c r="L114" t="s">
+        <v>668</v>
+      </c>
+      <c r="N114" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="C115" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="D115" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="E115" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="F115" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
       <c r="G115" t="s">
-        <v>933</v>
-      </c>
-      <c r="K115" t="s">
-        <v>763</v>
+        <v>670</v>
       </c>
       <c r="N115" t="s">
         <v>763</v>
@@ -6619,118 +6659,106 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="D116" t="s">
-        <v>889</v>
+        <v>372</v>
       </c>
       <c r="E116" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="F116" t="s">
-        <v>727</v>
+        <v>671</v>
       </c>
       <c r="G116" t="s">
-        <v>890</v>
-      </c>
-      <c r="H116" t="s">
-        <v>763</v>
-      </c>
-      <c r="I116" t="s">
-        <v>763</v>
-      </c>
-      <c r="K116" t="s">
+        <v>671</v>
+      </c>
+      <c r="N116" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="C117" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="D117" t="s">
-        <v>891</v>
+        <v>940</v>
       </c>
       <c r="E117" t="s">
-        <v>578</v>
+        <v>523</v>
       </c>
       <c r="F117" t="s">
-        <v>728</v>
+        <v>673</v>
       </c>
       <c r="G117" t="s">
-        <v>892</v>
-      </c>
-      <c r="I117" t="s">
-        <v>763</v>
-      </c>
-      <c r="K117" t="s">
-        <v>763</v>
-      </c>
-      <c r="L117" t="s">
+        <v>828</v>
+      </c>
+      <c r="H117" t="s">
+        <v>763</v>
+      </c>
+      <c r="M117" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="C118" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="D118" t="s">
-        <v>893</v>
+        <v>375</v>
       </c>
       <c r="E118" t="s">
-        <v>579</v>
+        <v>524</v>
       </c>
       <c r="F118" t="s">
-        <v>729</v>
+        <v>674</v>
       </c>
       <c r="G118" t="s">
-        <v>894</v>
-      </c>
-      <c r="J118" t="s">
-        <v>763</v>
-      </c>
-      <c r="K118" t="s">
+        <v>674</v>
+      </c>
+      <c r="N118" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="B119" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="C119" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="D119" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="E119" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="F119" t="s">
-        <v>730</v>
+        <v>675</v>
       </c>
       <c r="G119" t="s">
-        <v>730</v>
+        <v>675</v>
       </c>
       <c r="N119" t="s">
         <v>763</v>
@@ -6738,321 +6766,288 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="C120" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="D120" t="s">
-        <v>949</v>
+        <v>378</v>
       </c>
       <c r="E120" t="s">
-        <v>581</v>
+        <v>527</v>
       </c>
       <c r="F120" t="s">
-        <v>731</v>
+        <v>677</v>
       </c>
       <c r="G120" t="s">
-        <v>895</v>
-      </c>
-      <c r="H120" t="s">
-        <v>763</v>
-      </c>
-      <c r="K120" t="s">
-        <v>763</v>
-      </c>
-      <c r="M120" t="s">
+        <v>677</v>
+      </c>
+      <c r="N120" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="C121" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="D121" t="s">
-        <v>432</v>
+        <v>831</v>
       </c>
       <c r="E121" t="s">
-        <v>582</v>
+        <v>528</v>
       </c>
       <c r="F121" t="s">
-        <v>732</v>
+        <v>678</v>
       </c>
       <c r="G121" t="s">
-        <v>732</v>
-      </c>
-      <c r="N121" t="s">
+        <v>678</v>
+      </c>
+      <c r="M121" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="C122" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="D122" t="s">
-        <v>950</v>
+        <v>380</v>
       </c>
       <c r="E122" t="s">
-        <v>583</v>
+        <v>529</v>
       </c>
       <c r="F122" t="s">
-        <v>733</v>
+        <v>679</v>
       </c>
       <c r="G122" t="s">
-        <v>896</v>
-      </c>
-      <c r="K122" t="s">
-        <v>763</v>
-      </c>
-      <c r="M122" t="s">
+        <v>679</v>
+      </c>
+      <c r="N122" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="C123" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="D123" t="s">
-        <v>897</v>
+        <v>383</v>
       </c>
       <c r="E123" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="F123" t="s">
-        <v>734</v>
+        <v>682</v>
       </c>
       <c r="G123" t="s">
-        <v>898</v>
-      </c>
-      <c r="K123" t="s">
-        <v>763</v>
+        <v>836</v>
       </c>
       <c r="L123" t="s">
+        <v>763</v>
+      </c>
+      <c r="N123" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="C124" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="D124" t="s">
-        <v>899</v>
+        <v>837</v>
       </c>
       <c r="E124" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="F124" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="G124" t="s">
-        <v>735</v>
-      </c>
-      <c r="H124" t="s">
-        <v>763</v>
-      </c>
-      <c r="L124" t="s">
+        <v>683</v>
+      </c>
+      <c r="M124" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="C125" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>900</v>
+        <v>838</v>
       </c>
       <c r="E125" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="F125" t="s">
-        <v>736</v>
+        <v>684</v>
       </c>
       <c r="G125" t="s">
-        <v>901</v>
-      </c>
-      <c r="K125" t="s">
-        <v>763</v>
-      </c>
-      <c r="M125" t="s">
+        <v>839</v>
+      </c>
+      <c r="L125" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="B126" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="C126" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="D126" t="s">
-        <v>902</v>
+        <v>840</v>
       </c>
       <c r="E126" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="F126" t="s">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="G126" t="s">
-        <v>903</v>
-      </c>
-      <c r="H126" t="s">
-        <v>763</v>
-      </c>
-      <c r="K126" t="s">
+        <v>685</v>
+      </c>
+      <c r="L126" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="C127" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="D127" t="s">
-        <v>904</v>
+        <v>844</v>
       </c>
       <c r="E127" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="F127" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="G127" t="s">
-        <v>905</v>
-      </c>
-      <c r="I127" t="s">
-        <v>763</v>
-      </c>
-      <c r="J127" t="s">
-        <v>763</v>
-      </c>
-      <c r="K127" t="s">
+        <v>845</v>
+      </c>
+      <c r="L127" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B128" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="C128" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="D128" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="E128" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="F128" t="s">
-        <v>739</v>
+        <v>696</v>
       </c>
       <c r="G128" t="s">
-        <v>739</v>
-      </c>
-      <c r="N128" t="s">
+        <v>696</v>
+      </c>
+      <c r="M128" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B129" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="C129" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="D129" t="s">
-        <v>954</v>
+        <v>400</v>
       </c>
       <c r="E129" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="F129" t="s">
-        <v>740</v>
+        <v>699</v>
       </c>
       <c r="G129" t="s">
-        <v>955</v>
-      </c>
-      <c r="K129" t="s">
-        <v>763</v>
-      </c>
-      <c r="M129" t="s">
+        <v>699</v>
+      </c>
+      <c r="N129" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="B130" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C130" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>906</v>
+        <v>860</v>
       </c>
       <c r="E130" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="F130" t="s">
-        <v>741</v>
+        <v>700</v>
       </c>
       <c r="G130" t="s">
-        <v>907</v>
-      </c>
-      <c r="I130" t="s">
-        <v>763</v>
-      </c>
-      <c r="K130" t="s">
-        <v>763</v>
+        <v>700</v>
       </c>
       <c r="M130" t="s">
         <v>763</v>
@@ -7060,254 +7055,236 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="C131" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D131" t="s">
-        <v>908</v>
+        <v>403</v>
       </c>
       <c r="E131" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="F131" t="s">
-        <v>742</v>
+        <v>702</v>
       </c>
       <c r="G131" t="s">
-        <v>742</v>
-      </c>
-      <c r="M131" t="s">
+        <v>702</v>
+      </c>
+      <c r="N131" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B132" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="C132" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="D132" t="s">
-        <v>443</v>
+        <v>864</v>
       </c>
       <c r="E132" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="F132" t="s">
-        <v>743</v>
+        <v>704</v>
       </c>
       <c r="G132" t="s">
-        <v>743</v>
-      </c>
-      <c r="N132" t="s">
+        <v>704</v>
+      </c>
+      <c r="M132" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B133" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="C133" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="D133" t="s">
-        <v>909</v>
+        <v>866</v>
       </c>
       <c r="E133" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="F133" t="s">
-        <v>744</v>
+        <v>706</v>
       </c>
       <c r="G133" t="s">
-        <v>744</v>
-      </c>
-      <c r="H133" t="s">
-        <v>763</v>
+        <v>706</v>
       </c>
       <c r="L133" t="s">
-        <v>763</v>
-      </c>
-      <c r="M133" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C134" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="D134" t="s">
-        <v>910</v>
+        <v>409</v>
       </c>
       <c r="E134" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="F134" t="s">
-        <v>745</v>
+        <v>708</v>
       </c>
       <c r="G134" t="s">
-        <v>745</v>
-      </c>
-      <c r="H134" t="s">
+        <v>708</v>
+      </c>
+      <c r="N134" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B135" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="D135" t="s">
-        <v>911</v>
+        <v>414</v>
       </c>
       <c r="E135" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="F135" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="G135" t="s">
-        <v>912</v>
-      </c>
-      <c r="I135" t="s">
-        <v>763</v>
-      </c>
-      <c r="K135" t="s">
-        <v>763</v>
-      </c>
-      <c r="L135" t="s">
-        <v>763</v>
-      </c>
-      <c r="M135" t="s">
+        <v>714</v>
+      </c>
+      <c r="N135" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B136" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="C136" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="D136" t="s">
-        <v>913</v>
+        <v>945</v>
       </c>
       <c r="E136" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="F136" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
       <c r="G136" t="s">
-        <v>914</v>
-      </c>
-      <c r="K136" t="s">
-        <v>763</v>
-      </c>
-      <c r="L136" t="s">
+        <v>946</v>
+      </c>
+      <c r="M136" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B137" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C137" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="D137" t="s">
-        <v>915</v>
+        <v>419</v>
       </c>
       <c r="E137" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="F137" t="s">
-        <v>748</v>
+        <v>719</v>
       </c>
       <c r="G137" t="s">
-        <v>916</v>
-      </c>
-      <c r="J137" t="s">
-        <v>763</v>
-      </c>
-      <c r="M137" t="s">
+        <v>719</v>
+      </c>
+      <c r="N137" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B138" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="D138" t="s">
-        <v>449</v>
+        <v>881</v>
       </c>
       <c r="E138" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="F138" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="G138" t="s">
-        <v>749</v>
-      </c>
-      <c r="N138" t="s">
+        <v>721</v>
+      </c>
+      <c r="H138" t="s">
+        <v>763</v>
+      </c>
+      <c r="M138" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C139" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D139" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="E139" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="F139" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="G139" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="N139" t="s">
         <v>763</v>
@@ -7315,83 +7292,80 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B140" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C140" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D140" t="s">
-        <v>917</v>
+        <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="F140" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="G140" t="s">
-        <v>918</v>
-      </c>
-      <c r="K140" t="s">
-        <v>763</v>
-      </c>
-      <c r="L140" t="s">
+        <v>732</v>
+      </c>
+      <c r="N140" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C141" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D141" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="E141" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="F141" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="G141" t="s">
-        <v>920</v>
+        <v>735</v>
       </c>
       <c r="H141" t="s">
         <v>763</v>
       </c>
-      <c r="K141" t="s">
+      <c r="L141" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C142" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D142" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="E142" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F142" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="G142" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="N142" t="s">
         <v>763</v>
@@ -7399,31 +7373,25 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C143" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D143" t="s">
-        <v>951</v>
+        <v>907</v>
       </c>
       <c r="E143" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="F143" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="G143" t="s">
-        <v>921</v>
-      </c>
-      <c r="K143" t="s">
-        <v>763</v>
-      </c>
-      <c r="L143" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="M143" t="s">
         <v>763</v>
@@ -7431,25 +7399,25 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C144" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D144" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E144" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F144" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="G144" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="N144" t="s">
         <v>763</v>
@@ -7457,144 +7425,135 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C145" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D145" t="s">
-        <v>456</v>
+        <v>908</v>
       </c>
       <c r="E145" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="F145" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="G145" t="s">
-        <v>756</v>
-      </c>
-      <c r="N145" t="s">
+        <v>744</v>
+      </c>
+      <c r="H145" t="s">
+        <v>763</v>
+      </c>
+      <c r="L145" t="s">
+        <v>763</v>
+      </c>
+      <c r="M145" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C146" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D146" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="E146" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="F146" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="G146" t="s">
-        <v>923</v>
-      </c>
-      <c r="K146" t="s">
-        <v>763</v>
-      </c>
-      <c r="L146" t="s">
+        <v>745</v>
+      </c>
+      <c r="H146" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C147" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D147" t="s">
-        <v>935</v>
+        <v>449</v>
       </c>
       <c r="E147" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="F147" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G147" t="s">
-        <v>936</v>
-      </c>
-      <c r="K147" t="s">
-        <v>763</v>
-      </c>
-      <c r="M147" t="s">
+        <v>749</v>
+      </c>
+      <c r="N147" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C148" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D148" t="s">
-        <v>924</v>
+        <v>450</v>
       </c>
       <c r="E148" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F148" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="G148" t="s">
-        <v>925</v>
-      </c>
-      <c r="K148" t="s">
-        <v>763</v>
-      </c>
-      <c r="L148" t="s">
-        <v>763</v>
-      </c>
-      <c r="M148" t="s">
+        <v>750</v>
+      </c>
+      <c r="N148" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C149" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D149" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E149" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F149" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G149" t="s">
-        <v>926</v>
-      </c>
-      <c r="K149" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="N149" t="s">
         <v>763</v>
@@ -7602,28 +7561,25 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C150" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D150" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E150" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F150" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="G150" t="s">
-        <v>934</v>
-      </c>
-      <c r="K150" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="N150" t="s">
         <v>763</v>
@@ -7631,34 +7587,34 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C151" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D151" t="s">
-        <v>952</v>
+        <v>456</v>
       </c>
       <c r="E151" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F151" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G151" t="s">
-        <v>953</v>
-      </c>
-      <c r="K151" t="s">
-        <v>763</v>
-      </c>
-      <c r="M151" t="s">
+        <v>756</v>
+      </c>
+      <c r="N151" t="s">
         <v>763</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N151">
+    <sortCondition descending="1" ref="K2:K151"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
